--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -3,15 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8701DC8E-FA00-492C-BF25-2CE9E06C69C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7E9CA-6FBD-4EE4-9338-E2882AFEEED2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="3" r:id="rId1"/>
     <sheet name="material" sheetId="1" r:id="rId2"/>
     <sheet name="storage" sheetId="5" r:id="rId3"/>
     <sheet name="supplier" sheetId="7" r:id="rId4"/>
+    <sheet name="group" sheetId="9" r:id="rId5"/>
+    <sheet name="org" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="224">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -872,6 +874,10 @@
   </si>
   <si>
     <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,7 +930,55 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="48">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1035,60 +1089,90 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D5E202-51CE-4337-B865-44B2224FBF8D}" name="表1_3" displayName="表1_3" ref="A1:F18" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D5E202-51CE-4337-B865-44B2224FBF8D}" name="表1_3" displayName="表1_3" ref="A1:F18" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:F18" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{678F6363-F8CC-4968-86D8-3D34CBB0EA0A}" name="序号" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{678F6363-F8CC-4968-86D8-3D34CBB0EA0A}" name="序号" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:F31" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:F27" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6A96D977-6D2B-4678-86EA-F75B0B8733BE}" name="表1_456" displayName="表1_456" ref="A1:F41" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2CEEEEEE-2D1E-44C2-A6A9-05B443B68EC9}" name="序号" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5ECC0EBE-27F1-4DCF-82AC-D855E59C6777}" name="字段名" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{3F3658DA-6892-4CF5-A7C7-935913DE566F}" name="字段描述" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{42071BE1-0F1B-4334-B042-3241AC376A37}" name="字段类型" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{704048D8-78BA-4AAE-B51A-1F73B898C8B3}" name="属性名" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{DDCD926E-70E4-45DE-8A99-E5155C786A64}" name="属性类型" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B10BD7AE-73E8-4092-858C-4101F43DF7AF}" name="表1_4567" displayName="表1_4567" ref="A1:F41" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6A672AA0-BD66-4A7D-BE34-D3349A38EE1E}" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{A4C2E44B-D2D5-42D7-B7A5-B05EBECF635D}" name="字段名" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C721B566-D64C-48A8-BD84-B54EF47A29E0}" name="字段描述" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{2B2F147D-4D62-4A97-9AB1-ED029AA579FF}" name="字段类型" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4880149A-69F1-4F57-881F-A0BD882B05B2}" name="属性名" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EC6F5F6C-F99C-41E2-B384-8B41D21AAEFE}" name="属性类型" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2966,7 +3050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17952E5D-F721-4E31-99DF-FF492D4FC90E}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -3809,4 +3893,1708 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386EBB18-B124-4D32-BE73-98BEB97E91C9}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD026EE-D4F9-40D9-BBFC-46C9AAAD6F6A}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7E9CA-6FBD-4EE4-9338-E2882AFEEED2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC43B9-612D-425A-A9D6-EBB65465ADEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="3" r:id="rId1"/>
     <sheet name="material" sheetId="1" r:id="rId2"/>
     <sheet name="storage" sheetId="5" r:id="rId3"/>
     <sheet name="supplier" sheetId="7" r:id="rId4"/>
-    <sheet name="group" sheetId="9" r:id="rId5"/>
-    <sheet name="org" sheetId="10" r:id="rId6"/>
+    <sheet name="group" sheetId="12" r:id="rId5"/>
+    <sheet name="org" sheetId="13" r:id="rId6"/>
+    <sheet name="dept" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="251">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,7 +878,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未修改</t>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countryarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政区划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_fathergroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innercode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_fatherorg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizationcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_fatherdept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancledate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +1039,31 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="56">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1089,90 +1222,105 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D5E202-51CE-4337-B865-44B2224FBF8D}" name="表1_3" displayName="表1_3" ref="A1:F18" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D5E202-51CE-4337-B865-44B2224FBF8D}" name="表1_3" displayName="表1_3" ref="A1:F18" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:F18" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{678F6363-F8CC-4968-86D8-3D34CBB0EA0A}" name="序号" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{678F6363-F8CC-4968-86D8-3D34CBB0EA0A}" name="序号" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:F31" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:F27" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6A96D977-6D2B-4678-86EA-F75B0B8733BE}" name="表1_456" displayName="表1_456" ref="A1:F41" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04DF31C3-9F0C-4CA3-AB8E-8C3FC758DF8B}" name="表9" displayName="表9" ref="A1:F27" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F27" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2CEEEEEE-2D1E-44C2-A6A9-05B443B68EC9}" name="序号" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5ECC0EBE-27F1-4DCF-82AC-D855E59C6777}" name="字段名" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{3F3658DA-6892-4CF5-A7C7-935913DE566F}" name="字段描述" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{42071BE1-0F1B-4334-B042-3241AC376A37}" name="字段类型" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{704048D8-78BA-4AAE-B51A-1F73B898C8B3}" name="属性名" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{DDCD926E-70E4-45DE-8A99-E5155C786A64}" name="属性类型" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{1E561017-4130-48F9-8053-05B68A79EC1A}" name="序号" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{C9D797A3-3F3A-4E77-B309-31A720BE3792}" name="字段名" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{2FE466FD-DE59-4664-B47F-8FD315A40DBA}" name="字段描述" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{26982362-1B2A-4A51-A40B-DD878B24885F}" name="字段类型" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{EB8A1B85-8187-471E-A06B-ED90D2BFF6B8}" name="属性名" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{11406CF7-3CA5-4A81-BF62-31C30DC9F47F}" name="属性类型" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B10BD7AE-73E8-4092-858C-4101F43DF7AF}" name="表1_4567" displayName="表1_4567" ref="A1:F41" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6F2728A-CF6C-473A-AECA-D031FAF1205B}" name="表9_11" displayName="表9_11" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6A672AA0-BD66-4A7D-BE34-D3349A38EE1E}" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A4C2E44B-D2D5-42D7-B7A5-B05EBECF635D}" name="字段名" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C721B566-D64C-48A8-BD84-B54EF47A29E0}" name="字段描述" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2B2F147D-4D62-4A97-9AB1-ED029AA579FF}" name="字段类型" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4880149A-69F1-4F57-881F-A0BD882B05B2}" name="属性名" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{EC6F5F6C-F99C-41E2-B384-8B41D21AAEFE}" name="属性类型" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{615AC8A7-4C02-41DD-950B-60F2D83CFCC1}" name="序号" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{C7EEA0CF-9D09-4AF4-AAE6-D68A7E8FCE06}" name="字段名" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{A149E93F-28DF-4E97-80CD-9626FF942166}" name="字段描述" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0830FBB5-67E5-4423-B04C-3CADDD5B4026}" name="字段类型" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{06629B10-ABC9-495F-B03B-65CFFD2C0D5B}" name="属性名" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{6B7DE001-8918-4EB1-861E-47F949BAF933}" name="属性类型" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4EF8FD9F-2AAE-4D53-8382-4509E05109D2}" name="表9_1112" displayName="表9_1112" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E112A0D7-9605-404A-A43F-E24C9CBDE6EA}" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{48562796-2FFF-4401-BE26-65E79CDC6E29}" name="字段名" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{9660E439-6412-4C97-86B9-57539D359CEA}" name="字段描述" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C40FA522-03D9-466B-8450-73FF0D6615DC}" name="字段类型" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{1C84BDB0-67A8-4446-8F62-5F54FE42F871}" name="属性名" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A265D5DD-6F6B-4186-ADF0-E02A96151FEC}" name="属性类型" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3896,11 +4044,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386EBB18-B124-4D32-BE73-98BEB97E91C9}">
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A9413-C727-439A-901B-DDBAADBADAEB}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3914,7 +4062,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -3934,307 +4082,304 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>232</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>229</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4242,19 +4387,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4262,16 +4407,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>73</v>
@@ -4282,19 +4427,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4302,16 +4447,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>76</v>
@@ -4322,19 +4467,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4342,16 +4487,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>210</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>73</v>
@@ -4362,19 +4507,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4382,19 +4527,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4402,19 +4547,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>203</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4422,19 +4567,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -4442,298 +4587,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4748,11 +4613,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD026EE-D4F9-40D9-BBFC-46C9AAAD6F6A}">
-  <dimension ref="A1:K41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1960096-19D5-41A6-B895-7F44916447DE}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4766,7 +4631,7 @@
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -4786,307 +4651,304 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5094,19 +4956,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5114,19 +4976,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5134,19 +4996,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5154,19 +5016,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5174,19 +5036,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5194,19 +5056,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5214,19 +5076,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5234,19 +5096,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5254,19 +5116,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5274,19 +5136,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5294,19 +5156,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -5314,278 +5176,604 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96788E5-D659-4FF8-A4F7-BF10A36DA954}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="E28" s="1" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="1" t="s">
         <v>75</v>
       </c>
     </row>

--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAC43B9-612D-425A-A9D6-EBB65465ADEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A742F19-440B-4D22-98D3-41A257AEF273}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="user" sheetId="3" r:id="rId1"/>
-    <sheet name="material" sheetId="1" r:id="rId2"/>
-    <sheet name="storage" sheetId="5" r:id="rId3"/>
-    <sheet name="supplier" sheetId="7" r:id="rId4"/>
-    <sheet name="group" sheetId="12" r:id="rId5"/>
-    <sheet name="org" sheetId="13" r:id="rId6"/>
-    <sheet name="dept" sheetId="14" r:id="rId7"/>
+    <sheet name="psndoc" sheetId="16" r:id="rId1"/>
+    <sheet name="psnjob" sheetId="17" r:id="rId2"/>
+    <sheet name="user" sheetId="3" r:id="rId3"/>
+    <sheet name="material" sheetId="1" r:id="rId4"/>
+    <sheet name="storage" sheetId="5" r:id="rId5"/>
+    <sheet name="supplier" sheetId="7" r:id="rId6"/>
+    <sheet name="group" sheetId="12" r:id="rId7"/>
+    <sheet name="org" sheetId="13" r:id="rId8"/>
+    <sheet name="dept" sheetId="14" r:id="rId9"/>
+    <sheet name="usergroup" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="292">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -910,10 +913,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pk_fathergroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上级集团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -926,10 +925,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pk_fatherorg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上级组织</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -954,10 +949,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pk_fatherdept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pk_org</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,6 +978,181 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_usergroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_psndoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾用名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinworkdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_psnjob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nikename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>psncode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_psncl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdutydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddutydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始任职日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束任职日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务称谓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示顺序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,7 +1205,79 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="80">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1222,105 +1460,150 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D5E202-51CE-4337-B865-44B2224FBF8D}" name="表1_3" displayName="表1_3" ref="A1:F18" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A1:F18" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18B92DD4-978F-4E6E-B755-11F9EEFC8DC6}" name="表1_37" displayName="表1_37" ref="A1:F30" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:F30" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{678F6363-F8CC-4968-86D8-3D34CBB0EA0A}" name="序号" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{6530E587-A53B-4BAA-B050-998AFBADA05C}" name="序号" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5471225F-0C0A-48EA-B369-581D4A611E94}" name="字段名" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CDED7D10-2D12-4E9F-9488-FB3C06DDBD41}" name="字段描述" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{4FCFF257-42A8-40AF-8395-5F5F80839C59}" name="字段类型" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{BBA81F1E-A37E-4009-A055-E888EBD5ECA4}" name="属性名" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D0E9B000-7009-469F-96D7-BB8248E12A45}" name="属性类型" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B48CB18-A2E5-464C-B555-4FCFDC5D99AE}" name="表9_6" displayName="表9_6" ref="A1:F15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:F15" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1C124F7B-ACD9-485E-9729-4DB85922A9D9}" name="序号" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{9568EE95-FD2B-4CA4-BEFB-204D6FBE36C0}" name="字段名" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{20FF07EC-8DE8-4035-9026-4A7FBC88FF4F}" name="字段描述" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{7A37C02A-A0E7-45D5-9590-CC910D955828}" name="字段类型" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{CA63945F-171C-41F8-A3FB-BC656A2E2F1E}" name="属性名" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{9CD8BAB6-DE81-4CD8-B27A-DD2938DA5327}" name="属性类型" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A1:F31" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A044E90C-EFFF-4502-838A-1428709583C8}" name="表1_378" displayName="表1_378" ref="A1:F21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F21" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{798A4280-C901-43A5-A974-5CF5AC85636A}" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{82E9BBFE-D7BA-43A0-8F83-093A8CF0AD0D}" name="字段名" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{AB51A63C-4030-4F19-BFE8-BB40C41E409C}" name="字段描述" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{F49B8F8E-AFEE-49C2-9FE7-85987654972E}" name="字段类型" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B7CEFFCB-2559-45BB-9CD0-4026530BE860}" name="属性名" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{36B4AC12-F3FB-408C-B40A-B3D738987292}" name="属性类型" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:F27" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D5E202-51CE-4337-B865-44B2224FBF8D}" name="表1_3" displayName="表1_3" ref="A1:F18" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A1:F18" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{678F6363-F8CC-4968-86D8-3D34CBB0EA0A}" name="序号" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:F31" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04DF31C3-9F0C-4CA3-AB8E-8C3FC758DF8B}" name="表9" displayName="表9" ref="A1:F27" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F27" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:F27" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E561017-4130-48F9-8053-05B68A79EC1A}" name="序号" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{C9D797A3-3F3A-4E77-B309-31A720BE3792}" name="字段名" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{2FE466FD-DE59-4664-B47F-8FD315A40DBA}" name="字段描述" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{26982362-1B2A-4A51-A40B-DD878B24885F}" name="字段类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{EB8A1B85-8187-471E-A06B-ED90D2BFF6B8}" name="属性名" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{11406CF7-3CA5-4A81-BF62-31C30DC9F47F}" name="属性类型" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6F2728A-CF6C-473A-AECA-D031FAF1205B}" name="表9_11" displayName="表9_11" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{615AC8A7-4C02-41DD-950B-60F2D83CFCC1}" name="序号" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{C7EEA0CF-9D09-4AF4-AAE6-D68A7E8FCE06}" name="字段名" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{A149E93F-28DF-4E97-80CD-9626FF942166}" name="字段描述" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{0830FBB5-67E5-4423-B04C-3CADDD5B4026}" name="字段类型" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{06629B10-ABC9-495F-B03B-65CFFD2C0D5B}" name="属性名" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{6B7DE001-8918-4EB1-861E-47F949BAF933}" name="属性类型" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4EF8FD9F-2AAE-4D53-8382-4509E05109D2}" name="表9_1112" displayName="表9_1112" ref="A1:F28" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04DF31C3-9F0C-4CA3-AB8E-8C3FC758DF8B}" name="表9" displayName="表9" ref="A1:F27" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:F27" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1E561017-4130-48F9-8053-05B68A79EC1A}" name="序号" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C9D797A3-3F3A-4E77-B309-31A720BE3792}" name="字段名" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{2FE466FD-DE59-4664-B47F-8FD315A40DBA}" name="字段描述" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{26982362-1B2A-4A51-A40B-DD878B24885F}" name="字段类型" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{EB8A1B85-8187-471E-A06B-ED90D2BFF6B8}" name="属性名" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{11406CF7-3CA5-4A81-BF62-31C30DC9F47F}" name="属性类型" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6F2728A-CF6C-473A-AECA-D031FAF1205B}" name="表9_11" displayName="表9_11" ref="A1:F28" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E112A0D7-9605-404A-A43F-E24C9CBDE6EA}" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{48562796-2FFF-4401-BE26-65E79CDC6E29}" name="字段名" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9660E439-6412-4C97-86B9-57539D359CEA}" name="字段描述" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{C40FA522-03D9-466B-8450-73FF0D6615DC}" name="字段类型" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{1C84BDB0-67A8-4446-8F62-5F54FE42F871}" name="属性名" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{A265D5DD-6F6B-4186-ADF0-E02A96151FEC}" name="属性类型" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{615AC8A7-4C02-41DD-950B-60F2D83CFCC1}" name="序号" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{C7EEA0CF-9D09-4AF4-AAE6-D68A7E8FCE06}" name="字段名" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{A149E93F-28DF-4E97-80CD-9626FF942166}" name="字段描述" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{0830FBB5-67E5-4423-B04C-3CADDD5B4026}" name="字段类型" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{06629B10-ABC9-495F-B03B-65CFFD2C0D5B}" name="属性名" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{6B7DE001-8918-4EB1-861E-47F949BAF933}" name="属性类型" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4EF8FD9F-2AAE-4D53-8382-4509E05109D2}" name="表9_1112" displayName="表9_1112" ref="A1:F28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E112A0D7-9605-404A-A43F-E24C9CBDE6EA}" name="序号" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{48562796-2FFF-4401-BE26-65E79CDC6E29}" name="字段名" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9660E439-6412-4C97-86B9-57539D359CEA}" name="字段描述" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{C40FA522-03D9-466B-8450-73FF0D6615DC}" name="字段类型" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{1C84BDB0-67A8-4446-8F62-5F54FE42F871}" name="属性名" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{A265D5DD-6F6B-4186-ADF0-E02A96151FEC}" name="属性类型" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1588,11 +1871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40989F3B-F940-4B43-B501-15A645B455E5}">
-  <dimension ref="A1:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFFA18-DD30-4073-ABEB-26883D994C23}">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1631,16 +1914,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
@@ -1694,7 +1977,7 @@
         <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>87</v>
@@ -1714,10 +1997,10 @@
         <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>89</v>
@@ -1731,16 +2014,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>88</v>
@@ -1751,19 +2034,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1771,19 +2054,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>97</v>
+        <v>266</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,16 +2074,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>88</v>
@@ -1811,16 +2094,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>88</v>
@@ -1831,19 +2114,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>258</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1851,16 +2134,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>263</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>107</v>
+        <v>262</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>84</v>
@@ -1871,19 +2154,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1891,19 +2174,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,19 +2194,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1931,19 +2214,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,18 +2234,258 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1976,12 +2499,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A266398-4C07-403C-B73F-A5FA2987B2F7}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -2029,7 +2552,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -2040,19 +2563,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,19 +2583,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,16 +2603,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -2100,19 +2623,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2140,16 +2663,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>76</v>
@@ -2160,16 +2683,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
@@ -2180,19 +2703,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,19 +2723,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,16 +2743,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>73</v>
@@ -2240,19 +2763,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,16 +2783,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>73</v>
@@ -2280,338 +2803,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2625,12 +2828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B89BF-E929-4B40-B62B-5E7C13EAC12F}">
-  <dimension ref="A1:F27"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A533A8-640D-4CC2-A3FF-7ACECB25B596}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2669,19 +2872,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,19 +2932,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>276</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,19 +2952,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>277</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2769,19 +2972,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2789,19 +2992,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2809,19 +3012,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>280</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2829,19 +3032,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2849,339 +3052,216 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>284</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>159</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>160</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3194,12 +3274,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17952E5D-F721-4E31-99DF-FF492D4FC90E}">
-  <dimension ref="A1:F41"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40989F3B-F940-4B43-B501-15A645B455E5}">
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3238,19 +3318,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3298,19 +3378,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,19 +3398,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,19 +3418,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3358,19 +3438,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3378,19 +3458,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3398,19 +3478,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>208</v>
+        <v>101</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3418,19 +3498,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3438,19 +3518,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3458,19 +3538,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3478,19 +3558,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3498,19 +3578,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3518,19 +3598,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3538,19 +3618,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3558,479 +3638,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4043,12 +3663,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A9413-C727-439A-901B-DDBAADBADAEB}">
-  <dimension ref="A1:F27"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4087,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -4096,7 +3716,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -4107,19 +3727,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,19 +3747,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4147,16 +3767,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -4167,16 +3787,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -4187,16 +3807,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>76</v>
@@ -4207,19 +3827,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4227,16 +3847,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
@@ -4247,16 +3867,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -4267,16 +3887,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>229</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
@@ -4287,19 +3907,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4307,19 +3927,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4327,19 +3947,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>214</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4347,19 +3967,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>205</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>204</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4367,19 +3987,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4387,19 +4007,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4407,19 +4027,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4427,19 +4047,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4447,19 +4067,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4467,19 +4087,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,19 +4107,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4507,19 +4127,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4527,16 +4147,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>73</v>
@@ -4547,19 +4167,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4567,16 +4187,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>73</v>
@@ -4587,18 +4207,98 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4612,12 +4312,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1960096-19D5-41A6-B895-7F44916447DE}">
-  <dimension ref="A1:F28"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7B89BF-E929-4B40-B62B-5E7C13EAC12F}">
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4656,16 +4356,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -4676,19 +4376,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4696,19 +4396,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4716,16 +4416,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -4736,16 +4436,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -4756,16 +4456,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>76</v>
@@ -4776,19 +4476,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4796,16 +4496,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>236</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>73</v>
@@ -4816,16 +4516,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
+        <v>128</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -4836,19 +4536,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4856,19 +4556,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4876,19 +4576,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4896,19 +4596,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4916,19 +4616,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4936,19 +4636,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>154</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4956,19 +4656,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4976,19 +4676,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4996,19 +4696,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5016,19 +4716,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>200</v>
+        <v>149</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5036,16 +4736,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>76</v>
@@ -5056,19 +4756,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5076,19 +4776,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5096,19 +4796,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5116,19 +4816,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5136,19 +4836,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5156,38 +4856,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -5201,12 +4881,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96788E5-D659-4FF8-A4F7-BF10A36DA954}">
-  <dimension ref="A1:F28"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17952E5D-F721-4E31-99DF-FF492D4FC90E}">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5245,16 +4925,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -5265,19 +4945,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,19 +4965,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,16 +4985,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -5325,16 +5005,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>233</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -5345,16 +5025,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>76</v>
@@ -5365,6 +5045,1424 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A9413-C727-439A-901B-DDBAADBADAEB}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1960096-19D5-41A6-B895-7F44916447DE}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -5381,17 +6479,606 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>243</v>
+        <v>169</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96788E5-D659-4FF8-A4F7-BF10A36DA954}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>73</v>
@@ -5402,16 +7089,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>73</v>
@@ -5422,16 +7109,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>73</v>
@@ -5442,10 +7129,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
@@ -5602,16 +7289,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>73</v>

--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A742F19-440B-4D22-98D3-41A257AEF273}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17ED0AA-8D10-4F85-8A76-DE17077CC9D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psndoc" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="313">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,9 +396,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>用户性别</t>
-  </si>
-  <si>
     <t>tinyint</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>用户地址</t>
-  </si>
-  <si>
     <t>varchar(200)</t>
   </si>
   <si>
@@ -1153,6 +1147,98 @@
   </si>
   <si>
     <t>显示顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identityverifycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabledate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabledate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>islocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_psndoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_usergroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enablestate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwdlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码安全级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwdparam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1460,150 +1546,150 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18B92DD4-978F-4E6E-B755-11F9EEFC8DC6}" name="表1_37" displayName="表1_37" ref="A1:F30" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18B92DD4-978F-4E6E-B755-11F9EEFC8DC6}" name="表1_37" displayName="表1_37" ref="A1:F30" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:F30" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{6530E587-A53B-4BAA-B050-998AFBADA05C}" name="序号" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{5471225F-0C0A-48EA-B369-581D4A611E94}" name="字段名" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{CDED7D10-2D12-4E9F-9488-FB3C06DDBD41}" name="字段描述" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{4FCFF257-42A8-40AF-8395-5F5F80839C59}" name="字段类型" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{BBA81F1E-A37E-4009-A055-E888EBD5ECA4}" name="属性名" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{D0E9B000-7009-469F-96D7-BB8248E12A45}" name="属性类型" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{6530E587-A53B-4BAA-B050-998AFBADA05C}" name="序号" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{5471225F-0C0A-48EA-B369-581D4A611E94}" name="字段名" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{CDED7D10-2D12-4E9F-9488-FB3C06DDBD41}" name="字段描述" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{4FCFF257-42A8-40AF-8395-5F5F80839C59}" name="字段类型" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{BBA81F1E-A37E-4009-A055-E888EBD5ECA4}" name="属性名" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{D0E9B000-7009-469F-96D7-BB8248E12A45}" name="属性类型" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B48CB18-A2E5-464C-B555-4FCFDC5D99AE}" name="表9_6" displayName="表9_6" ref="A1:F15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B48CB18-A2E5-464C-B555-4FCFDC5D99AE}" name="表9_6" displayName="表9_6" ref="A1:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F15" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1C124F7B-ACD9-485E-9729-4DB85922A9D9}" name="序号" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{9568EE95-FD2B-4CA4-BEFB-204D6FBE36C0}" name="字段名" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{20FF07EC-8DE8-4035-9026-4A7FBC88FF4F}" name="字段描述" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{7A37C02A-A0E7-45D5-9590-CC910D955828}" name="字段类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{CA63945F-171C-41F8-A3FB-BC656A2E2F1E}" name="属性名" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{9CD8BAB6-DE81-4CD8-B27A-DD2938DA5327}" name="属性类型" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{1C124F7B-ACD9-485E-9729-4DB85922A9D9}" name="序号" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9568EE95-FD2B-4CA4-BEFB-204D6FBE36C0}" name="字段名" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{20FF07EC-8DE8-4035-9026-4A7FBC88FF4F}" name="字段描述" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{7A37C02A-A0E7-45D5-9590-CC910D955828}" name="字段类型" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{CA63945F-171C-41F8-A3FB-BC656A2E2F1E}" name="属性名" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9CD8BAB6-DE81-4CD8-B27A-DD2938DA5327}" name="属性类型" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A044E90C-EFFF-4502-838A-1428709583C8}" name="表1_378" displayName="表1_378" ref="A1:F21" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A044E90C-EFFF-4502-838A-1428709583C8}" name="表1_378" displayName="表1_378" ref="A1:F21" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:F21" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{798A4280-C901-43A5-A974-5CF5AC85636A}" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{82E9BBFE-D7BA-43A0-8F83-093A8CF0AD0D}" name="字段名" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{AB51A63C-4030-4F19-BFE8-BB40C41E409C}" name="字段描述" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F49B8F8E-AFEE-49C2-9FE7-85987654972E}" name="字段类型" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{B7CEFFCB-2559-45BB-9CD0-4026530BE860}" name="属性名" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{36B4AC12-F3FB-408C-B40A-B3D738987292}" name="属性类型" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{798A4280-C901-43A5-A974-5CF5AC85636A}" name="序号" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{82E9BBFE-D7BA-43A0-8F83-093A8CF0AD0D}" name="字段名" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{AB51A63C-4030-4F19-BFE8-BB40C41E409C}" name="字段描述" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{F49B8F8E-AFEE-49C2-9FE7-85987654972E}" name="字段类型" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{B7CEFFCB-2559-45BB-9CD0-4026530BE860}" name="属性名" dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{36B4AC12-F3FB-408C-B40A-B3D738987292}" name="属性类型" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D5E202-51CE-4337-B865-44B2224FBF8D}" name="表1_3" displayName="表1_3" ref="A1:F18" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
-  <autoFilter ref="A1:F18" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D5E202-51CE-4337-B865-44B2224FBF8D}" name="表1_3" displayName="表1_3" ref="A1:F25" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A1:F25" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{678F6363-F8CC-4968-86D8-3D34CBB0EA0A}" name="序号" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{678F6363-F8CC-4968-86D8-3D34CBB0EA0A}" name="序号" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="57"/>
+    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A1:F31" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:F27" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04DF31C3-9F0C-4CA3-AB8E-8C3FC758DF8B}" name="表9" displayName="表9" ref="A1:F27" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04DF31C3-9F0C-4CA3-AB8E-8C3FC758DF8B}" name="表9" displayName="表9" ref="A1:F27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:F27" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E561017-4130-48F9-8053-05B68A79EC1A}" name="序号" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{C9D797A3-3F3A-4E77-B309-31A720BE3792}" name="字段名" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{2FE466FD-DE59-4664-B47F-8FD315A40DBA}" name="字段描述" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{26982362-1B2A-4A51-A40B-DD878B24885F}" name="字段类型" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{EB8A1B85-8187-471E-A06B-ED90D2BFF6B8}" name="属性名" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{11406CF7-3CA5-4A81-BF62-31C30DC9F47F}" name="属性类型" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{1E561017-4130-48F9-8053-05B68A79EC1A}" name="序号" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{C9D797A3-3F3A-4E77-B309-31A720BE3792}" name="字段名" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{2FE466FD-DE59-4664-B47F-8FD315A40DBA}" name="字段描述" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{26982362-1B2A-4A51-A40B-DD878B24885F}" name="字段类型" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{EB8A1B85-8187-471E-A06B-ED90D2BFF6B8}" name="属性名" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{11406CF7-3CA5-4A81-BF62-31C30DC9F47F}" name="属性类型" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6F2728A-CF6C-473A-AECA-D031FAF1205B}" name="表9_11" displayName="表9_11" ref="A1:F28" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6F2728A-CF6C-473A-AECA-D031FAF1205B}" name="表9_11" displayName="表9_11" ref="A1:F28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{615AC8A7-4C02-41DD-950B-60F2D83CFCC1}" name="序号" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{C7EEA0CF-9D09-4AF4-AAE6-D68A7E8FCE06}" name="字段名" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{A149E93F-28DF-4E97-80CD-9626FF942166}" name="字段描述" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{0830FBB5-67E5-4423-B04C-3CADDD5B4026}" name="字段类型" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{06629B10-ABC9-495F-B03B-65CFFD2C0D5B}" name="属性名" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{6B7DE001-8918-4EB1-861E-47F949BAF933}" name="属性类型" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{615AC8A7-4C02-41DD-950B-60F2D83CFCC1}" name="序号" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{C7EEA0CF-9D09-4AF4-AAE6-D68A7E8FCE06}" name="字段名" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{A149E93F-28DF-4E97-80CD-9626FF942166}" name="字段描述" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{0830FBB5-67E5-4423-B04C-3CADDD5B4026}" name="字段类型" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{06629B10-ABC9-495F-B03B-65CFFD2C0D5B}" name="属性名" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{6B7DE001-8918-4EB1-861E-47F949BAF933}" name="属性类型" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4EF8FD9F-2AAE-4D53-8382-4509E05109D2}" name="表9_1112" displayName="表9_1112" ref="A1:F28" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4EF8FD9F-2AAE-4D53-8382-4509E05109D2}" name="表9_1112" displayName="表9_1112" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E112A0D7-9605-404A-A43F-E24C9CBDE6EA}" name="序号" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{48562796-2FFF-4401-BE26-65E79CDC6E29}" name="字段名" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{9660E439-6412-4C97-86B9-57539D359CEA}" name="字段描述" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{C40FA522-03D9-466B-8450-73FF0D6615DC}" name="字段类型" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{1C84BDB0-67A8-4446-8F62-5F54FE42F871}" name="属性名" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{A265D5DD-6F6B-4186-ADF0-E02A96151FEC}" name="属性类型" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{E112A0D7-9605-404A-A43F-E24C9CBDE6EA}" name="序号" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{48562796-2FFF-4401-BE26-65E79CDC6E29}" name="字段名" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{9660E439-6412-4C97-86B9-57539D359CEA}" name="字段描述" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C40FA522-03D9-466B-8450-73FF0D6615DC}" name="字段类型" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{1C84BDB0-67A8-4446-8F62-5F54FE42F871}" name="属性名" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{A265D5DD-6F6B-4186-ADF0-E02A96151FEC}" name="属性类型" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1914,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -1923,7 +2009,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
@@ -1977,7 +2063,7 @@
         <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>87</v>
@@ -2014,16 +2100,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>88</v>
@@ -2034,16 +2120,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>88</v>
@@ -2054,16 +2140,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>88</v>
@@ -2074,16 +2160,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>88</v>
@@ -2114,19 +2200,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,16 +2220,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>84</v>
@@ -2157,10 +2243,10 @@
         <v>94</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>94</v>
@@ -2174,19 +2260,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2194,16 +2280,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>84</v>
@@ -2214,16 +2300,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>88</v>
@@ -2234,16 +2320,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>88</v>
@@ -2254,16 +2340,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>88</v>
@@ -2274,16 +2360,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>88</v>
@@ -2294,16 +2380,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>88</v>
@@ -2314,16 +2400,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>88</v>
@@ -2340,7 +2426,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2374,16 +2460,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>84</v>
@@ -2394,19 +2480,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,16 +2500,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>84</v>
@@ -2434,19 +2520,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2454,16 +2540,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>84</v>
@@ -2474,19 +2560,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2543,7 +2629,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -2552,7 +2638,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -2566,7 +2652,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
@@ -2603,16 +2689,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -2623,16 +2709,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>73</v>
@@ -2669,7 +2755,7 @@
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
@@ -2789,7 +2875,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>60</v>
@@ -2832,7 +2918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A533A8-640D-4CC2-A3FF-7ACECB25B596}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -2872,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -2881,7 +2967,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
@@ -2932,16 +3018,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>88</v>
@@ -2952,16 +3038,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>88</v>
@@ -2972,16 +3058,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>88</v>
@@ -2992,16 +3078,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>88</v>
@@ -3012,16 +3098,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>88</v>
@@ -3032,16 +3118,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>88</v>
@@ -3052,16 +3138,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>88</v>
@@ -3072,16 +3158,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>84</v>
@@ -3089,16 +3175,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>84</v>
@@ -3115,7 +3201,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>31</v>
@@ -3149,16 +3235,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>84</v>
@@ -3169,19 +3255,19 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3189,16 +3275,16 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>84</v>
@@ -3209,19 +3295,19 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3229,16 +3315,16 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>84</v>
@@ -3249,19 +3335,19 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3276,10 +3362,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40989F3B-F940-4B43-B501-15A645B455E5}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3434,223 +3520,300 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>308</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>310</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>290</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>299</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>291</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>293</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>303</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>115</v>
+        <v>305</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>100</v>
+      <c r="E25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4153,7 +4316,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>31</v>
@@ -4273,7 +4436,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>60</v>
@@ -4356,16 +4519,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -4419,7 +4582,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>65</v>
@@ -4439,7 +4602,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -4476,16 +4639,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>76</v>
@@ -4496,16 +4659,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>73</v>
@@ -4516,16 +4679,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -4536,19 +4699,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4556,19 +4719,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4576,19 +4739,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4596,19 +4759,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4616,19 +4779,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,19 +4799,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4656,19 +4819,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4676,19 +4839,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4696,19 +4859,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4716,19 +4879,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4842,7 +5005,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>60</v>
@@ -4925,16 +5088,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -4988,7 +5151,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>66</v>
@@ -5008,7 +5171,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -5045,16 +5208,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>76</v>
@@ -5065,16 +5228,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
@@ -5085,16 +5248,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -5105,16 +5268,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
@@ -5125,16 +5288,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>73</v>
@@ -5145,16 +5308,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>73</v>
@@ -5165,16 +5328,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>73</v>
@@ -5185,16 +5348,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>73</v>
@@ -5205,16 +5368,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>73</v>
@@ -5225,16 +5388,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>75</v>
@@ -5245,16 +5408,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>73</v>
@@ -5265,19 +5428,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,16 +5448,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>76</v>
@@ -5305,19 +5468,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,16 +5488,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>73</v>
@@ -5345,16 +5508,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>76</v>
@@ -5365,16 +5528,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>76</v>
@@ -5385,16 +5548,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>76</v>
@@ -5405,16 +5568,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>76</v>
@@ -5425,16 +5588,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>76</v>
@@ -5445,16 +5608,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>76</v>
@@ -5465,16 +5628,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>76</v>
@@ -5485,16 +5648,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>76</v>
@@ -5505,16 +5668,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>76</v>
@@ -5525,16 +5688,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>76</v>
@@ -5545,16 +5708,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>76</v>
@@ -5565,19 +5728,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5691,7 +5854,7 @@
         <v>61</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>60</v>
@@ -5797,7 +5960,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
@@ -5834,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -5843,7 +6006,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -5854,16 +6017,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -5894,16 +6057,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
@@ -5914,16 +6077,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
@@ -5934,16 +6097,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -5954,16 +6117,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
@@ -5974,16 +6137,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>76</v>
@@ -5994,16 +6157,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -6014,16 +6177,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>76</v>
@@ -6034,16 +6197,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>75</v>
@@ -6074,16 +6237,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>76</v>
@@ -6094,16 +6257,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>73</v>
@@ -6114,16 +6277,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>73</v>
@@ -6140,7 +6303,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
@@ -6260,7 +6423,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>60</v>
@@ -6366,7 +6529,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
@@ -6403,7 +6566,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -6412,7 +6575,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -6423,16 +6586,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -6483,16 +6646,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>73</v>
@@ -6503,16 +6666,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -6523,16 +6686,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>73</v>
@@ -6543,16 +6706,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>76</v>
@@ -6563,16 +6726,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -6583,16 +6746,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>76</v>
@@ -6603,16 +6766,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>76</v>
@@ -6623,16 +6786,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>75</v>
@@ -6663,16 +6826,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>76</v>
@@ -6683,16 +6846,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>73</v>
@@ -6703,16 +6866,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>73</v>
@@ -6729,7 +6892,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
@@ -6849,7 +7012,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>60</v>
@@ -6932,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -6941,7 +7104,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -6955,7 +7118,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>66</v>
@@ -6992,7 +7155,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -7001,7 +7164,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -7012,16 +7175,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -7069,16 +7232,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>73</v>
@@ -7089,16 +7252,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>73</v>
@@ -7109,16 +7272,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>73</v>
@@ -7129,16 +7292,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>73</v>
@@ -7149,16 +7312,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -7169,16 +7332,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>76</v>
@@ -7189,16 +7352,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>76</v>
@@ -7209,16 +7372,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>76</v>
@@ -7229,16 +7392,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>75</v>
@@ -7269,16 +7432,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>76</v>
@@ -7289,16 +7452,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>73</v>
@@ -7315,7 +7478,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
@@ -7435,7 +7598,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>60</v>

--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17ED0AA-8D10-4F85-8A76-DE17077CC9D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C05C325-586D-491C-9B55-4027A2FEB1FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psndoc" sheetId="16" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="307">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -372,9 +372,6 @@
     <t>用户编码</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -390,15 +387,9 @@
     <t>用户密码</t>
   </si>
   <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>tinyint</t>
-  </si>
-  <si>
     <t>birthday</t>
   </si>
   <si>
@@ -417,828 +408,817 @@
     <t>手机号码</t>
   </si>
   <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>创建人员</t>
+  </si>
+  <si>
+    <t>creationtime</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>修改人员</t>
+  </si>
+  <si>
+    <t>modifiedtime</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>删除标志</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>时间戳</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>pk_storage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isgubstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isprostore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>csflag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isonthewaystore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isdirectstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isagentstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isretailstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isshopstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iskptaxstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货位管理标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废品仓库标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产仓库标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在途仓库标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直运仓库标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代储仓库标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零售仓库标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店仓库标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保税仓库标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enablestate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_supplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mencode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_superior</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_supplierclass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商基本分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suppliertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iscustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxpayerid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳税人识别号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registeredfund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legalbody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postalcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>website</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplierstate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suplinkman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suobankacc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商简称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助记码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家或地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_timezone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supcountrytaxes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家税类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>establishdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成立日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buslicense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业执照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_currtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册资金币种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主营业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countryarea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政区划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innercode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>principal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organizationcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织机构码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_dept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_org</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancledate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_usergroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_psndoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usedname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾用名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idcard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinworkdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加工作日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>officephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homephone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_psnjob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nikename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家庭电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>psncode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_psncl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startdutydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enddutydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showorder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始任职日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束任职日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务称谓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>identityverifycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enabledate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disabledate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>islocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_psndoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doctype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usertype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_usergroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enablestate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwdlevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码安全级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwdparam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>creator</t>
-  </si>
-  <si>
-    <t>创建人员</t>
-  </si>
-  <si>
-    <t>creationtime</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>modifier</t>
-  </si>
-  <si>
-    <t>修改人员</t>
-  </si>
-  <si>
-    <t>modifiedtime</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>dr</t>
-  </si>
-  <si>
-    <t>删除标志</t>
-  </si>
-  <si>
-    <t>ts</t>
-  </si>
-  <si>
-    <t>时间戳</t>
-  </si>
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>pk_storage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>principal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isgubstore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isprostore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>csflag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isonthewaystore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isdirectstore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isagentstore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isretailstore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isshopstore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iskptaxstore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货位管理标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>废品仓库标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产仓库标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在途仓库标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直运仓库标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代储仓库标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>零售仓库标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门店仓库标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保税仓库标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enablestate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_supplier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shortname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mencode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>trade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_superior</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_supplierclass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属行业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级供应商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商基本分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suppliertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iscustomer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taxpayerid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳税人识别号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>registeredfund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legalbody</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>postalcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>website</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplierstate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suplinkman</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suobankacc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商简称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>助记码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家或地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_timezone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supcountrytaxes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国家税类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>establishdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成立日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buslicense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_currtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册资金币种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主营业务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>introduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>countryarea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行政区划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>innercode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>principal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>organizationcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织机构码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_dept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_org</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>depttype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cancledate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>撤销日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_usergroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_psndoc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usedname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾用名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idcard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>joinworkdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加工作日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>officephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>homephone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_psnjob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lastname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>firstname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nikename</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昵称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>办公电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>psncode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_psncl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startdutydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enddutydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jobname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showorder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始任职日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束任职日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务称谓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>identityverifycode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enabledate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>disabledate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>islocked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_psndoc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doctype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usertype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_usergroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enablestate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失效日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwdlevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码安全级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwdparam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1561,15 +1541,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B48CB18-A2E5-464C-B555-4FCFDC5D99AE}" name="表9_6" displayName="表9_6" ref="A1:F15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5B48CB18-A2E5-464C-B555-4FCFDC5D99AE}" name="表9_6" displayName="表9_6" ref="A1:F15" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:F15" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1C124F7B-ACD9-485E-9729-4DB85922A9D9}" name="序号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9568EE95-FD2B-4CA4-BEFB-204D6FBE36C0}" name="字段名" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{20FF07EC-8DE8-4035-9026-4A7FBC88FF4F}" name="字段描述" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{7A37C02A-A0E7-45D5-9590-CC910D955828}" name="字段类型" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{CA63945F-171C-41F8-A3FB-BC656A2E2F1E}" name="属性名" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{9CD8BAB6-DE81-4CD8-B27A-DD2938DA5327}" name="属性类型" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1C124F7B-ACD9-485E-9729-4DB85922A9D9}" name="序号" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9568EE95-FD2B-4CA4-BEFB-204D6FBE36C0}" name="字段名" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{20FF07EC-8DE8-4035-9026-4A7FBC88FF4F}" name="字段描述" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{7A37C02A-A0E7-45D5-9590-CC910D955828}" name="字段类型" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{CA63945F-171C-41F8-A3FB-BC656A2E2F1E}" name="属性名" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{9CD8BAB6-DE81-4CD8-B27A-DD2938DA5327}" name="属性类型" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1598,98 +1578,98 @@
     <tableColumn id="2" xr3:uid="{E8481F5C-2C35-40C9-9813-C13A254CD849}" name="字段名" dataDxfId="60"/>
     <tableColumn id="3" xr3:uid="{04310BC7-7CF7-4C4D-8729-237CB432DF57}" name="字段描述" dataDxfId="59"/>
     <tableColumn id="4" xr3:uid="{BD26AB81-27D6-443F-8BF4-8646B93CB05F}" name="字段类型" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{33FB3F4E-0591-46D7-AE77-3368296BA0F5}" name="属性名" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{07F83D48-8877-4AFA-865C-1F6F1160941F}" name="属性类型" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59DD405B-7474-42AD-9B9C-4962EB1454D7}" name="表1" displayName="表1" ref="A1:F31" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:F31" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{3C9906D1-8EE4-48B3-A9C3-CB43A76C6407}" name="序号" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{76EF1745-D2FA-42FF-8DC5-545CE8C5CE9F}" name="字段名" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{3880132E-2994-43D7-B84C-2546DBF9F26E}" name="字段描述" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{49935F07-2BBF-4D31-8FD5-C891C44B77C4}" name="字段类型" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{34A7171E-1938-4CAD-92C1-4A51272A2629}" name="属性名" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{3AA48222-0EFC-4386-B391-4EF987E4A2C1}" name="属性类型" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31F62B0C-30F0-4E03-A40A-241F4FD011C1}" name="表1_4" displayName="表1_4" ref="A1:F27" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:F27" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{A15055F6-7C2E-486C-A527-FB910158DAD2}" name="序号" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{A8B925C9-231A-423A-9F77-D7BDE8332EF4}" name="字段名" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{66801267-DB8C-40CF-BAF8-0F91EDBDF610}" name="字段描述" dataDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{6AC224B3-FC52-49B2-B4D6-C3A98009A3CD}" name="字段类型" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{133DA919-EB1A-4345-B866-13837AAB0036}" name="属性名" dataDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{6D3C41E9-4157-4D6A-B1C4-E7E45539D31C}" name="属性类型" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9145145-BBA0-4FCD-BBB6-99E2639077B4}" name="表1_45" displayName="表1_45" ref="A1:F41" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:F41" xr:uid="{3397D119-FA4F-4A11-889F-C5AF6538312E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{846F36DA-290B-4B09-B6A6-519B5228C26A}" name="序号" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{F4496036-E883-4891-910C-A40BBB38DF66}" name="字段名" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{6501094A-E505-4844-BCD1-83153BF27338}" name="字段描述" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{10467F1F-42C9-42D6-A42B-B13D7C1711A8}" name="字段类型" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{D0324438-EDD5-479B-AC3E-95E4BF261C8B}" name="属性名" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{010755E6-C306-46E4-B0CF-D86D610BD6B7}" name="属性类型" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04DF31C3-9F0C-4CA3-AB8E-8C3FC758DF8B}" name="表9" displayName="表9" ref="A1:F27" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{04DF31C3-9F0C-4CA3-AB8E-8C3FC758DF8B}" name="表9" displayName="表9" ref="A1:F27" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:F27" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1E561017-4130-48F9-8053-05B68A79EC1A}" name="序号" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{C9D797A3-3F3A-4E77-B309-31A720BE3792}" name="字段名" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{2FE466FD-DE59-4664-B47F-8FD315A40DBA}" name="字段描述" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{26982362-1B2A-4A51-A40B-DD878B24885F}" name="字段类型" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{EB8A1B85-8187-471E-A06B-ED90D2BFF6B8}" name="属性名" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{11406CF7-3CA5-4A81-BF62-31C30DC9F47F}" name="属性类型" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{1E561017-4130-48F9-8053-05B68A79EC1A}" name="序号" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{C9D797A3-3F3A-4E77-B309-31A720BE3792}" name="字段名" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{2FE466FD-DE59-4664-B47F-8FD315A40DBA}" name="字段描述" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{26982362-1B2A-4A51-A40B-DD878B24885F}" name="字段类型" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{EB8A1B85-8187-471E-A06B-ED90D2BFF6B8}" name="属性名" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{11406CF7-3CA5-4A81-BF62-31C30DC9F47F}" name="属性类型" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6F2728A-CF6C-473A-AECA-D031FAF1205B}" name="表9_11" displayName="表9_11" ref="A1:F28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6F2728A-CF6C-473A-AECA-D031FAF1205B}" name="表9_11" displayName="表9_11" ref="A1:F28" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{615AC8A7-4C02-41DD-950B-60F2D83CFCC1}" name="序号" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{C7EEA0CF-9D09-4AF4-AAE6-D68A7E8FCE06}" name="字段名" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{A149E93F-28DF-4E97-80CD-9626FF942166}" name="字段描述" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{0830FBB5-67E5-4423-B04C-3CADDD5B4026}" name="字段类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{06629B10-ABC9-495F-B03B-65CFFD2C0D5B}" name="属性名" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{6B7DE001-8918-4EB1-861E-47F949BAF933}" name="属性类型" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{615AC8A7-4C02-41DD-950B-60F2D83CFCC1}" name="序号" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{C7EEA0CF-9D09-4AF4-AAE6-D68A7E8FCE06}" name="字段名" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{A149E93F-28DF-4E97-80CD-9626FF942166}" name="字段描述" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{0830FBB5-67E5-4423-B04C-3CADDD5B4026}" name="字段类型" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{06629B10-ABC9-495F-B03B-65CFFD2C0D5B}" name="属性名" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{6B7DE001-8918-4EB1-861E-47F949BAF933}" name="属性类型" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4EF8FD9F-2AAE-4D53-8382-4509E05109D2}" name="表9_1112" displayName="表9_1112" ref="A1:F28" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4EF8FD9F-2AAE-4D53-8382-4509E05109D2}" name="表9_1112" displayName="表9_1112" ref="A1:F28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:F28" xr:uid="{75637EE3-A780-4602-97A4-4A6F269503C6}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E112A0D7-9605-404A-A43F-E24C9CBDE6EA}" name="序号" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{48562796-2FFF-4401-BE26-65E79CDC6E29}" name="字段名" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{9660E439-6412-4C97-86B9-57539D359CEA}" name="字段描述" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{C40FA522-03D9-466B-8450-73FF0D6615DC}" name="字段类型" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{1C84BDB0-67A8-4446-8F62-5F54FE42F871}" name="属性名" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{A265D5DD-6F6B-4186-ADF0-E02A96151FEC}" name="属性类型" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{E112A0D7-9605-404A-A43F-E24C9CBDE6EA}" name="序号" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{48562796-2FFF-4401-BE26-65E79CDC6E29}" name="字段名" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{9660E439-6412-4C97-86B9-57539D359CEA}" name="字段描述" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{C40FA522-03D9-466B-8450-73FF0D6615DC}" name="字段类型" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{1C84BDB0-67A8-4446-8F62-5F54FE42F871}" name="属性名" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{A265D5DD-6F6B-4186-ADF0-E02A96151FEC}" name="属性类型" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1960,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFFA18-DD30-4073-ABEB-26883D994C23}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2000,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -2009,7 +1989,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
@@ -2063,16 +2043,16 @@
         <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2080,7 +2060,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>40</v>
@@ -2089,10 +2069,10 @@
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2100,19 +2080,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2120,19 +2100,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2140,19 +2120,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2160,19 +2140,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,7 +2172,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,19 +2180,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,16 +2200,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>84</v>
@@ -2240,16 +2220,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>84</v>
@@ -2260,19 +2240,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2280,16 +2260,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>84</v>
@@ -2300,19 +2280,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,19 +2300,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2340,19 +2320,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2360,19 +2340,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,19 +2360,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2400,19 +2380,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2426,7 +2406,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -2460,16 +2440,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>84</v>
@@ -2480,19 +2460,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,16 +2480,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>84</v>
@@ -2520,19 +2500,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,16 +2520,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>84</v>
@@ -2560,19 +2540,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2589,8 +2569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A266398-4C07-403C-B73F-A5FA2987B2F7}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -2638,7 +2618,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -2652,10 +2632,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -2689,16 +2669,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -2709,16 +2689,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>73</v>
@@ -2755,13 +2735,13 @@
         <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,7 +2855,7 @@
         <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>60</v>
@@ -2919,7 +2899,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2958,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -2967,7 +2947,7 @@
         <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>84</v>
@@ -3018,19 +2998,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3038,19 +3018,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,19 +3038,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3078,19 +3058,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,19 +3078,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3118,19 +3098,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3138,19 +3118,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,16 +3138,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>84</v>
@@ -3175,16 +3155,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>84</v>
@@ -3201,7 +3181,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>31</v>
@@ -3235,16 +3215,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>84</v>
@@ -3255,19 +3235,19 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,16 +3255,16 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>84</v>
@@ -3295,19 +3275,19 @@
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,16 +3295,16 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>84</v>
@@ -3335,19 +3315,19 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3364,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40989F3B-F940-4B43-B501-15A645B455E5}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3470,13 +3450,13 @@
         <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,19 +3464,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,133 +3484,196 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>93</v>
+        <v>305</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
       <c r="B8" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>302</v>
+      <c r="D13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>312</v>
+      <c r="E14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>304</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>84</v>
@@ -3638,47 +3681,47 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>78</v>
@@ -3698,19 +3741,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>84</v>
@@ -3718,39 +3761,39 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>84</v>
@@ -3758,39 +3801,39 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>84</v>
@@ -3798,22 +3841,22 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3831,7 +3874,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3936,7 +3979,7 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -4316,7 +4359,7 @@
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>31</v>
@@ -4436,7 +4479,7 @@
         <v>61</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>60</v>
@@ -4480,7 +4523,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4519,16 +4562,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -4582,10 +4625,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -4602,7 +4645,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -4639,16 +4682,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>76</v>
@@ -4659,16 +4702,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>73</v>
@@ -4679,16 +4722,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -4699,19 +4742,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4719,19 +4762,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4739,19 +4782,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4759,19 +4802,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4779,19 +4822,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,19 +4842,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4819,19 +4862,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4839,19 +4882,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4859,19 +4902,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4879,19 +4922,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,7 +5048,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>60</v>
@@ -5048,8 +5091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17952E5D-F721-4E31-99DF-FF492D4FC90E}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5088,16 +5131,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -5151,10 +5194,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -5171,7 +5214,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>80</v>
@@ -5208,16 +5251,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>76</v>
@@ -5228,16 +5271,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
@@ -5248,16 +5291,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -5268,16 +5311,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
@@ -5288,16 +5331,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>73</v>
@@ -5308,16 +5351,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>73</v>
@@ -5328,16 +5371,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>73</v>
@@ -5348,16 +5391,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>73</v>
@@ -5368,16 +5411,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>73</v>
@@ -5388,16 +5431,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>75</v>
@@ -5408,16 +5451,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>73</v>
@@ -5428,19 +5471,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5448,16 +5491,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>76</v>
@@ -5468,19 +5511,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5488,16 +5531,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>73</v>
@@ -5508,16 +5551,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>76</v>
@@ -5528,16 +5571,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>76</v>
@@ -5548,16 +5591,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>76</v>
@@ -5568,16 +5611,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>76</v>
@@ -5588,16 +5631,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>76</v>
@@ -5608,16 +5651,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>76</v>
@@ -5628,16 +5671,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>76</v>
@@ -5648,16 +5691,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>76</v>
@@ -5668,16 +5711,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>76</v>
@@ -5688,16 +5731,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>76</v>
@@ -5708,16 +5751,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>76</v>
@@ -5728,19 +5771,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5854,7 +5897,7 @@
         <v>61</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>60</v>
@@ -5898,7 +5941,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5960,10 +6003,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -5997,7 +6040,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -6006,7 +6049,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -6017,16 +6060,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -6057,16 +6100,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>73</v>
@@ -6077,16 +6120,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>76</v>
@@ -6097,16 +6140,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -6117,16 +6160,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>76</v>
@@ -6137,16 +6180,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>76</v>
@@ -6157,16 +6200,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -6177,16 +6220,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>76</v>
@@ -6197,16 +6240,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>75</v>
@@ -6237,16 +6280,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>76</v>
@@ -6257,16 +6300,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>73</v>
@@ -6277,16 +6320,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>73</v>
@@ -6303,13 +6346,13 @@
         <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -6423,7 +6466,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>60</v>
@@ -6467,7 +6510,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6529,10 +6572,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -6566,7 +6609,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -6575,7 +6618,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -6586,16 +6629,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -6646,16 +6689,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>73</v>
@@ -6666,16 +6709,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>76</v>
@@ -6686,16 +6729,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>73</v>
@@ -6706,16 +6749,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>76</v>
@@ -6726,16 +6769,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -6746,16 +6789,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>76</v>
@@ -6766,16 +6809,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>76</v>
@@ -6786,16 +6829,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>75</v>
@@ -6826,16 +6869,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>76</v>
@@ -6846,16 +6889,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>73</v>
@@ -6866,16 +6909,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>73</v>
@@ -6892,13 +6935,13 @@
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7012,7 +7055,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>60</v>
@@ -7056,7 +7099,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7095,7 +7138,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>36</v>
@@ -7104,7 +7147,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>73</v>
@@ -7118,10 +7161,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>305</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -7155,7 +7198,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -7164,7 +7207,7 @@
         <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>76</v>
@@ -7175,16 +7218,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>76</v>
@@ -7232,16 +7275,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>73</v>
@@ -7252,16 +7295,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>73</v>
@@ -7272,16 +7315,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>73</v>
@@ -7292,16 +7335,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>73</v>
@@ -7312,16 +7355,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>76</v>
@@ -7332,16 +7375,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>76</v>
@@ -7352,16 +7395,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>76</v>
@@ -7372,16 +7415,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>76</v>
@@ -7392,16 +7435,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>75</v>
@@ -7432,16 +7475,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>76</v>
@@ -7452,16 +7495,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>73</v>
@@ -7478,13 +7521,13 @@
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7598,7 +7641,7 @@
         <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>60</v>

--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31669D39-46DE-49D6-9A8F-4FADB487BAA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7000E8-D048-42F0-AD6C-5989A0F3071E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="12" r:id="rId1"/>
@@ -1596,170 +1596,170 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AA5E8DE2-FDF4-4139-9FDE-9431DA716794}" name="表1_3791923" displayName="表1_3791923" ref="A2:I43" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AA5E8DE2-FDF4-4139-9FDE-9431DA716794}" name="表1_3791923" displayName="表1_3791923" ref="A2:I43" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AC09BD0E-5CF5-4FFE-8F3B-AECD0E3E15B0}" name="序号" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9452DD37-81DD-414C-915B-9EA4C1D9B0D0}" name="字段名" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{EDAD4239-FA6A-465C-ADCA-6447EF3434D0}" name="字段描述" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{C76AE093-4096-4242-9A37-6B59127D989C}" name="字段类型" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{AD8F088B-54D4-40A7-BF3E-5E1969DF7E95}" name="字段长度" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00752FF6-078F-4EBB-9DFA-76CC8D7F9F3A}" name="可否为空" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{947FD514-0582-428C-BBE8-EA373D42098E}" name="默认值" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{F726CB43-BF6E-40A3-A391-A8D3BF7A50B4}" name="属性名" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3E076409-D458-4E68-A415-1D5740B00B31}" name="属性类型" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{AC09BD0E-5CF5-4FFE-8F3B-AECD0E3E15B0}" name="序号" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{9452DD37-81DD-414C-915B-9EA4C1D9B0D0}" name="字段名" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{EDAD4239-FA6A-465C-ADCA-6447EF3434D0}" name="字段描述" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{C76AE093-4096-4242-9A37-6B59127D989C}" name="字段类型" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{AD8F088B-54D4-40A7-BF3E-5E1969DF7E95}" name="字段长度" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00752FF6-078F-4EBB-9DFA-76CC8D7F9F3A}" name="可否为空" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{947FD514-0582-428C-BBE8-EA373D42098E}" name="默认值" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{F726CB43-BF6E-40A3-A391-A8D3BF7A50B4}" name="属性名" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{3E076409-D458-4E68-A415-1D5740B00B31}" name="属性类型" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4251ADB4-8596-4466-8B68-805530609015}" name="表1_379" displayName="表1_379" ref="A2:I43" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4251ADB4-8596-4466-8B68-805530609015}" name="表1_379" displayName="表1_379" ref="A2:I43" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{258957D7-372C-4513-8341-B205F2CB23B5}" name="序号" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{82BFDD16-6DA6-4AB8-A0AA-18C69300F6F7}" name="字段名" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{D43BF357-252D-40E7-9D3D-98622461A9FE}" name="字段描述" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{B9B09077-C4F8-4A02-B3F4-FD4D8E4709AD}" name="字段类型" dataDxfId="93"/>
-    <tableColumn id="8" xr3:uid="{B376C88F-87CD-4970-A3D4-176E62844F27}" name="字段长度" dataDxfId="92"/>
-    <tableColumn id="9" xr3:uid="{E116F0C5-6EBC-4FC2-B795-9CFB51271122}" name="可否为空" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{55E194A9-340C-403A-8747-EB2E6260227D}" name="默认值" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{14D4305C-9CC0-41CB-8207-5059D22DF81D}" name="属性名" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{F85CDC00-2760-4031-9E3B-05F2E0B0C050}" name="属性类型" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{258957D7-372C-4513-8341-B205F2CB23B5}" name="序号" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{82BFDD16-6DA6-4AB8-A0AA-18C69300F6F7}" name="字段名" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{D43BF357-252D-40E7-9D3D-98622461A9FE}" name="字段描述" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B9B09077-C4F8-4A02-B3F4-FD4D8E4709AD}" name="字段类型" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B376C88F-87CD-4970-A3D4-176E62844F27}" name="字段长度" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E116F0C5-6EBC-4FC2-B795-9CFB51271122}" name="可否为空" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{55E194A9-340C-403A-8747-EB2E6260227D}" name="默认值" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{14D4305C-9CC0-41CB-8207-5059D22DF81D}" name="属性名" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{F85CDC00-2760-4031-9E3B-05F2E0B0C050}" name="属性类型" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{83815927-2528-4058-88D1-7F7AF429D840}" name="表10" displayName="表10" ref="A2:I30" totalsRowShown="0" headerRowDxfId="77" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{83815927-2528-4058-88D1-7F7AF429D840}" name="表10" displayName="表10" ref="A2:I30" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A6FD98D0-2174-4E88-8EC7-DD566EC07655}" name="序号" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{CC2DB11F-BD41-49B2-A089-C14D541B0D73}" name="字段名" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{95CE7C42-42E9-4858-B86A-6D2EBEA0E5A4}" name="字段描述" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{69DCD9B5-87A0-43DB-BAB7-391A29133EB8}" name="字段类型" dataDxfId="84"/>
-    <tableColumn id="5" xr3:uid="{03B9116E-1A53-44E1-A693-2E6722E32F0B}" name="字段长度" dataDxfId="83"/>
-    <tableColumn id="6" xr3:uid="{678E7864-9BF5-434D-B466-90052B261FA0}" name="可否为空" dataDxfId="82"/>
-    <tableColumn id="7" xr3:uid="{55C6AF20-468B-4A31-9A59-F0594F1F197C}" name="默认值" dataDxfId="81"/>
-    <tableColumn id="8" xr3:uid="{849C173C-750A-45BE-9AA6-62A3544EF33D}" name="属性名" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{D445E7A7-AAAC-4BF0-BDF0-BE1F91D40B86}" name="属性类型" dataDxfId="79"/>
+    <tableColumn id="1" xr3:uid="{A6FD98D0-2174-4E88-8EC7-DD566EC07655}" name="序号" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{CC2DB11F-BD41-49B2-A089-C14D541B0D73}" name="字段名" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{95CE7C42-42E9-4858-B86A-6D2EBEA0E5A4}" name="字段描述" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{69DCD9B5-87A0-43DB-BAB7-391A29133EB8}" name="字段类型" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{03B9116E-1A53-44E1-A693-2E6722E32F0B}" name="字段长度" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{678E7864-9BF5-434D-B466-90052B261FA0}" name="可否为空" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{55C6AF20-468B-4A31-9A59-F0594F1F197C}" name="默认值" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{849C173C-750A-45BE-9AA6-62A3544EF33D}" name="属性名" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{D445E7A7-AAAC-4BF0-BDF0-BE1F91D40B86}" name="属性类型" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A3FBC3A5-EC33-4B72-B173-ACDE85591238}" name="表13" displayName="表13" ref="A2:I30" totalsRowShown="0" headerRowDxfId="66" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A3FBC3A5-EC33-4B72-B173-ACDE85591238}" name="表13" displayName="表13" ref="A2:I30" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{61693B3C-5A67-4210-8A05-FB8F708C7A07}" name="序号" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{5022FBDD-BA72-4034-B909-CD280ECD9F4F}" name="字段名" dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{93AF279F-E807-4ABB-83FA-29C02C4732B0}" name="字段描述" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{81505016-A591-4562-8037-583A4FF540FB}" name="字段类型" dataDxfId="73"/>
-    <tableColumn id="5" xr3:uid="{D556BCE4-DA24-4820-9FFA-6DA1929EF275}" name="字段长度" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{DA926CB4-4E4A-404A-AE52-E7ECA352EEDE}" name="可否为空" dataDxfId="71"/>
-    <tableColumn id="7" xr3:uid="{6517B616-08E5-4E2D-B886-37BD22FBA1AB}" name="默认值" dataDxfId="70"/>
-    <tableColumn id="8" xr3:uid="{5F2ADD50-33F8-40C2-9951-4D0EB60D440F}" name="属性名" dataDxfId="69"/>
-    <tableColumn id="9" xr3:uid="{EBC9198F-5A14-4402-B426-EA418551B0B6}" name="属性类型" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{61693B3C-5A67-4210-8A05-FB8F708C7A07}" name="序号" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{5022FBDD-BA72-4034-B909-CD280ECD9F4F}" name="字段名" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{93AF279F-E807-4ABB-83FA-29C02C4732B0}" name="字段描述" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{81505016-A591-4562-8037-583A4FF540FB}" name="字段类型" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{D556BCE4-DA24-4820-9FFA-6DA1929EF275}" name="字段长度" dataDxfId="92"/>
+    <tableColumn id="6" xr3:uid="{DA926CB4-4E4A-404A-AE52-E7ECA352EEDE}" name="可否为空" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{6517B616-08E5-4E2D-B886-37BD22FBA1AB}" name="默认值" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{5F2ADD50-33F8-40C2-9951-4D0EB60D440F}" name="属性名" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{EBC9198F-5A14-4402-B426-EA418551B0B6}" name="属性类型" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18B92DD4-978F-4E6E-B755-11F9EEFC8DC6}" name="表1_37" displayName="表1_37" ref="A2:I32" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18B92DD4-978F-4E6E-B755-11F9EEFC8DC6}" name="表1_37" displayName="表1_37" ref="A2:I32" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6530E587-A53B-4BAA-B050-998AFBADA05C}" name="序号" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{5471225F-0C0A-48EA-B369-581D4A611E94}" name="字段名" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{CDED7D10-2D12-4E9F-9488-FB3C06DDBD41}" name="字段描述" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{4FCFF257-42A8-40AF-8395-5F5F80839C59}" name="字段类型" dataDxfId="104"/>
-    <tableColumn id="8" xr3:uid="{56EE70FD-57D9-4DD1-9C3B-799819F7DBD4}" name="字段长度" dataDxfId="103"/>
-    <tableColumn id="9" xr3:uid="{C33A5791-2B73-4E8F-9B6F-E2EB0410088B}" name="可否为空" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{5B82F636-82D7-4B2D-AB3D-B342000DA07B}" name="默认值" dataDxfId="101"/>
-    <tableColumn id="5" xr3:uid="{BBA81F1E-A37E-4009-A055-E888EBD5ECA4}" name="属性名" dataDxfId="100"/>
-    <tableColumn id="6" xr3:uid="{D0E9B000-7009-469F-96D7-BB8248E12A45}" name="属性类型" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{6530E587-A53B-4BAA-B050-998AFBADA05C}" name="序号" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{5471225F-0C0A-48EA-B369-581D4A611E94}" name="字段名" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{CDED7D10-2D12-4E9F-9488-FB3C06DDBD41}" name="字段描述" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{4FCFF257-42A8-40AF-8395-5F5F80839C59}" name="字段类型" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{56EE70FD-57D9-4DD1-9C3B-799819F7DBD4}" name="字段长度" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{C33A5791-2B73-4E8F-9B6F-E2EB0410088B}" name="可否为空" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{5B82F636-82D7-4B2D-AB3D-B342000DA07B}" name="默认值" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{BBA81F1E-A37E-4009-A055-E888EBD5ECA4}" name="属性名" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{D0E9B000-7009-469F-96D7-BB8248E12A45}" name="属性类型" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{65C2A88E-E101-44AA-900E-73628C97F796}" name="表15" displayName="表15" ref="A2:I23" totalsRowShown="0" headerRowDxfId="55" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{65C2A88E-E101-44AA-900E-73628C97F796}" name="表15" displayName="表15" ref="A2:I23" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DCA0AED6-1C6D-43BB-9384-8936F0B5BD42}" name="序号" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{789EDBAB-BC76-4029-96E7-E3946F0A8885}" name="字段名" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{9439CABC-5137-4A7C-9D29-B2210F98CD42}" name="字段描述" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{E76B7EF6-AE18-4D2B-A1D9-A3BB78A03B29}" name="字段类型" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{E6CC79EA-E52E-42B5-9E90-0A19FB5ACBF4}" name="字段长度" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{FF9D2656-EB6E-4BEB-97EF-46D6A5D22726}" name="可否为空" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{190F8FBC-F680-4F59-A2F5-7D8C446000FE}" name="默认值" dataDxfId="59"/>
-    <tableColumn id="8" xr3:uid="{64FA74A3-FF6C-42B5-8CC7-A53DF3DEF772}" name="属性名" dataDxfId="58"/>
-    <tableColumn id="9" xr3:uid="{62F88642-66EF-4BF3-8643-520BC5C7C568}" name="属性类型" dataDxfId="57"/>
+    <tableColumn id="1" xr3:uid="{DCA0AED6-1C6D-43BB-9384-8936F0B5BD42}" name="序号" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{789EDBAB-BC76-4029-96E7-E3946F0A8885}" name="字段名" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{9439CABC-5137-4A7C-9D29-B2210F98CD42}" name="字段描述" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{E76B7EF6-AE18-4D2B-A1D9-A3BB78A03B29}" name="字段类型" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{E6CC79EA-E52E-42B5-9E90-0A19FB5ACBF4}" name="字段长度" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{FF9D2656-EB6E-4BEB-97EF-46D6A5D22726}" name="可否为空" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{190F8FBC-F680-4F59-A2F5-7D8C446000FE}" name="默认值" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{64FA74A3-FF6C-42B5-8CC7-A53DF3DEF772}" name="属性名" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{62F88642-66EF-4BF3-8643-520BC5C7C568}" name="属性类型" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ACC7BC63-1BA4-4BCD-BDEA-3C967E5DF561}" name="表17" displayName="表17" ref="A2:I27" totalsRowShown="0" headerRowDxfId="44" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ACC7BC63-1BA4-4BCD-BDEA-3C967E5DF561}" name="表17" displayName="表17" ref="A2:I27" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{71E29998-34A9-4167-9178-C56138139ECC}" name="序号" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{6612E7F0-B304-4056-B7D3-B86716C92869}" name="字段名" dataDxfId="53"/>
-    <tableColumn id="3" xr3:uid="{A384FAD0-3691-423D-85B6-B67FF259CE26}" name="字段描述" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{ED23AD6F-EB32-4244-B6C9-5DB6C2CE0440}" name="字段类型" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{42EAD6C3-4D83-420C-A1B6-3B6C965E4BCF}" name="字段长度" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{FA12EA68-D251-401D-8B6B-BD2669B90E23}" name="可否为空" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{90000192-CCFB-4612-ACBA-96ADDC2088AF}" name="默认值" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{E0107E0E-AE23-446B-8436-97F84E89FE2F}" name="属性名" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{73752CED-65E7-4CC6-9866-4DC36158A0B2}" name="属性类型" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{71E29998-34A9-4167-9178-C56138139ECC}" name="序号" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{6612E7F0-B304-4056-B7D3-B86716C92869}" name="字段名" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{A384FAD0-3691-423D-85B6-B67FF259CE26}" name="字段描述" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{ED23AD6F-EB32-4244-B6C9-5DB6C2CE0440}" name="字段类型" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{42EAD6C3-4D83-420C-A1B6-3B6C965E4BCF}" name="字段长度" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{FA12EA68-D251-401D-8B6B-BD2669B90E23}" name="可否为空" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{90000192-CCFB-4612-ACBA-96ADDC2088AF}" name="默认值" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{E0107E0E-AE23-446B-8436-97F84E89FE2F}" name="属性名" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{73752CED-65E7-4CC6-9866-4DC36158A0B2}" name="属性类型" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{5872424B-6991-4701-B742-B575858C79BA}" name="表19" displayName="表19" ref="A2:I17" totalsRowShown="0" headerRowDxfId="33" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{5872424B-6991-4701-B742-B575858C79BA}" name="表19" displayName="表19" ref="A2:I17" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A15BE779-980F-4C1B-83F8-1322C41D41CD}" name="序号" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{7A638EC2-8FFA-466F-B09B-0C97FD0A33DF}" name="字段名" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{EBD890FF-232B-4164-8532-D8D02CF3A073}" name="字段描述" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{D42D03A3-3DD3-4CDF-9BA3-E26BEAC3E784}" name="字段类型" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{8AA98096-C55B-4B96-889B-35FDFA1E79C8}" name="字段长度" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{5F9E2F50-22E8-4775-A010-23869CEB26CE}" name="可否为空" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{B9DEC6AA-3140-4416-9E2C-B2F2E57E932F}" name="默认值" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{73ACB7B0-5794-4BEC-A08A-BFC7A9632331}" name="属性名" dataDxfId="36"/>
-    <tableColumn id="9" xr3:uid="{70A5DFC2-8B42-4E2D-92E4-B43CBF002BC8}" name="属性类型" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{A15BE779-980F-4C1B-83F8-1322C41D41CD}" name="序号" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{7A638EC2-8FFA-466F-B09B-0C97FD0A33DF}" name="字段名" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{EBD890FF-232B-4164-8532-D8D02CF3A073}" name="字段描述" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{D42D03A3-3DD3-4CDF-9BA3-E26BEAC3E784}" name="字段类型" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{8AA98096-C55B-4B96-889B-35FDFA1E79C8}" name="字段长度" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{5F9E2F50-22E8-4775-A010-23869CEB26CE}" name="可否为空" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{B9DEC6AA-3140-4416-9E2C-B2F2E57E932F}" name="默认值" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{73ACB7B0-5794-4BEC-A08A-BFC7A9632331}" name="属性名" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{70A5DFC2-8B42-4E2D-92E4-B43CBF002BC8}" name="属性类型" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE40AEE-6FDC-44B5-8874-DF535A3C4410}" name="表20" displayName="表20" ref="A2:I33" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE40AEE-6FDC-44B5-8874-DF535A3C4410}" name="表20" displayName="表20" ref="A2:I33" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E23A7CAB-7244-47E9-8F74-8E491BCDE07E}" name="序号" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{9A0DB0DA-426D-40E8-A4DC-D1705DAFC509}" name="字段名" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CE6F930D-8025-4AA7-B390-FBA7D4F010CC}" name="字段描述" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{6004FC42-A0EA-401F-94A5-A5134EC9B975}" name="字段类型" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{E5358363-60CA-499F-88EB-3684103B4BE6}" name="字段长度" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{3C7845CD-6DEC-4654-BBA6-C6AF95F2D6D0}" name="可否为空" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{D673D41C-B841-40BA-88CE-7943BA484F0B}" name="默认值" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{A19CD49D-D279-4454-84C7-E8D107446FFE}" name="属性名" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{9B29B408-BF22-402E-9929-1ED00F7005E4}" name="属性类型" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{E23A7CAB-7244-47E9-8F74-8E491BCDE07E}" name="序号" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{9A0DB0DA-426D-40E8-A4DC-D1705DAFC509}" name="字段名" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{CE6F930D-8025-4AA7-B390-FBA7D4F010CC}" name="字段描述" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{6004FC42-A0EA-401F-94A5-A5134EC9B975}" name="字段类型" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{E5358363-60CA-499F-88EB-3684103B4BE6}" name="字段长度" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{3C7845CD-6DEC-4654-BBA6-C6AF95F2D6D0}" name="可否为空" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{D673D41C-B841-40BA-88CE-7943BA484F0B}" name="默认值" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{A19CD49D-D279-4454-84C7-E8D107446FFE}" name="属性名" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{9B29B408-BF22-402E-9929-1ED00F7005E4}" name="属性类型" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D1004C4B-DF88-417B-A89E-681E61705049}" name="表21" displayName="表21" ref="A2:I29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D1004C4B-DF88-417B-A89E-681E61705049}" name="表21" displayName="表21" ref="A2:I29" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C4F5E1A-37F5-486C-8145-A2D5E9E2385B}" name="序号" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{0DEDF550-478A-4F80-A40D-B0AF27F62737}" name="字段名" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{D4131985-56DE-4ECE-B152-D9470A2A88F8}" name="字段描述" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{1C5F5B8D-ABCF-4360-A6EE-247D0B798B02}" name="字段类型" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{315D8F06-37FC-465C-9F90-446F6A6F58D7}" name="字段长度" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{32BB380B-FC0F-4DA1-A4C4-FBC809BC0EE3}" name="可否为空" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{D5BD182F-A36F-4222-BC08-56FD3F49024A}" name="默认值" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{26E7E7B2-71E6-4B42-943A-D23931557C21}" name="属性名" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{E39C6ED7-04FE-458F-94BB-731CDE3D000F}" name="属性类型" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{7C4F5E1A-37F5-486C-8145-A2D5E9E2385B}" name="序号" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{0DEDF550-478A-4F80-A40D-B0AF27F62737}" name="字段名" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{D4131985-56DE-4ECE-B152-D9470A2A88F8}" name="字段描述" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{1C5F5B8D-ABCF-4360-A6EE-247D0B798B02}" name="字段类型" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{315D8F06-37FC-465C-9F90-446F6A6F58D7}" name="字段长度" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{32BB380B-FC0F-4DA1-A4C4-FBC809BC0EE3}" name="可否为空" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{D5BD182F-A36F-4222-BC08-56FD3F49024A}" name="默认值" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{26E7E7B2-71E6-4B42-943A-D23931557C21}" name="属性名" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{E39C6ED7-04FE-458F-94BB-731CDE3D000F}" name="属性类型" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2030,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A9413-C727-439A-901B-DDBAADBADAEB}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2043,7 +2043,9 @@
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="123.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2950,8 +2952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17952E5D-F721-4E31-99DF-FF492D4FC90E}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2967,9 @@
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4876,7 +4880,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I5"/>
+      <selection activeCell="K2" sqref="K2:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4888,7 +4892,9 @@
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="111" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -5823,7 +5829,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I10"/>
+      <selection activeCell="K2" sqref="K2:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5834,7 +5840,9 @@
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="116.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -6765,8 +6773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BFFA18-DD30-4073-ABEB-26883D994C23}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7777,7 +7785,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I5"/>
+      <selection activeCell="K2" sqref="K2:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7789,7 +7797,9 @@
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="124.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -8487,7 +8497,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I5"/>
+      <selection activeCell="K2" sqref="K2:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8499,7 +8509,9 @@
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="113.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -9320,7 +9332,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K2" sqref="K2:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9334,7 +9346,9 @@
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="143.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -9854,8 +9868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10880,7 +10894,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I5"/>
+      <selection activeCell="K2" sqref="K2:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10892,7 +10906,9 @@
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="128.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">

--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7000E8-D048-42F0-AD6C-5989A0F3071E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E5450F-8801-4ADE-9ECE-38CD485BB7C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3864" yWindow="456" windowWidth="12816" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="12" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="284">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1147,6 +1147,9 @@
   <si>
     <t>供应商信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint unsigned</t>
   </si>
 </sst>
 </file>
@@ -2030,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A9413-C727-439A-901B-DDBAADBADAEB}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2039,7 +2042,8 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -2869,7 +2873,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>253</v>
@@ -2885,7 +2889,7 @@
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">

--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E5450F-8801-4ADE-9ECE-38CD485BB7C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC7459E-DB00-417B-9D45-8DB66E43F235}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="456" windowWidth="12816" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="12" r:id="rId1"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>decimal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,9 +327,6 @@
     <t>用户主键</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>Integer</t>
   </si>
   <si>
@@ -1150,6 +1143,14 @@
   </si>
   <si>
     <t>tinyint unsigned</t>
+  </si>
+  <si>
+    <t>tinyint unsigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int unsigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2033,8 +2034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472A9413-C727-439A-901B-DDBAADBADAEB}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2054,16 +2055,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -2081,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -2111,23 +2112,23 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_group int   auto_increment   comment '主键',</v>
+        <v>pk_group int unsigned   auto_increment   comment '主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2135,28 +2136,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K29" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
@@ -2168,28 +2169,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2201,28 +2202,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2234,28 +2235,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2273,22 +2274,22 @@
         <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2300,29 +2301,29 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_superior int  null  comment '上级集团',</v>
+        <v>pk_superior int unsigned  null  comment '上级集团',</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2330,28 +2331,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1">
         <v>200</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2363,28 +2364,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1">
         <v>200</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2396,28 +2397,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E12" s="1">
         <v>200</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2429,28 +2430,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E13" s="1">
         <v>200</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2462,28 +2463,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2495,28 +2496,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E15" s="1">
         <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2528,29 +2529,29 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>establishdate datetime  null  comment '成立日期',</v>
+        <v>establishdate date  null  comment '成立日期',</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2564,22 +2565,22 @@
         <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E17" s="1">
         <v>20</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2591,28 +2592,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E18" s="1">
         <v>200</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2624,29 +2625,29 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_country int  null  comment '国家或地区',</v>
+        <v>pk_country int unsigned  null  comment '国家或地区',</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2654,29 +2655,29 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_timezone int  null  comment '时区',</v>
+        <v>pk_timezone int unsigned  null  comment '时区',</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2690,10 +2691,10 @@
         <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>282</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -2702,11 +2703,11 @@
         <v>29</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,28 +2715,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E22" s="1">
         <v>200</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2753,23 +2754,23 @@
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2783,19 +2784,19 @@
         <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2813,23 +2814,23 @@
         <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2843,19 +2844,19 @@
         <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2873,10 +2874,10 @@
         <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -2885,7 +2886,7 @@
         <v>57</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2903,19 +2904,19 @@
         <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2924,13 +2925,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2956,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17952E5D-F721-4E31-99DF-FF492D4FC90E}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2966,7 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -2978,16 +2979,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -3005,13 +3006,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -3029,29 +3030,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_supplier int   auto_increment   comment '供应商主键',</v>
+        <v>pk_supplier int unsigned   auto_increment   comment '供应商主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3065,23 +3066,23 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K43" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
-        <v>pk_group int  not null  comment '集团',</v>
+        <v>pk_group int unsigned  not null  comment '集团',</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3095,23 +3096,23 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_org int  not null  comment '组织',</v>
+        <v>pk_org int unsigned  not null  comment '组织',</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3119,28 +3120,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3152,28 +3153,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3191,22 +3192,22 @@
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3218,28 +3219,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="1">
         <v>200</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3254,25 +3255,25 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3284,28 +3285,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3317,28 +3318,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3350,29 +3351,29 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_country int  null  comment '国家或地区',</v>
+        <v>pk_country int unsigned  null  comment '国家或地区',</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3380,29 +3381,29 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_timezone int  null  comment '时区',</v>
+        <v>pk_timezone int unsigned  null  comment '时区',</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3410,29 +3411,29 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>trade int  null  comment '所属行业',</v>
+        <v>trade int unsigned  null  comment '所属行业',</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3440,29 +3441,29 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>suppliertype int  null  comment '供应商类型',</v>
+        <v>suppliertype int unsigned  null  comment '供应商类型',</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3470,29 +3471,29 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_superior int  null  comment '上级供应商',</v>
+        <v>pk_superior int unsigned  null  comment '上级供应商',</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3500,25 +3501,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3530,29 +3531,29 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_supplierclass int  null  comment '供应商基本分类',</v>
+        <v>pk_supplierclass int unsigned  null  comment '供应商基本分类',</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3560,29 +3561,29 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>iscustomer int  null  comment '客户标志',</v>
+        <v>iscustomer tinyint unsigned  null  comment '客户标志',</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3590,28 +3591,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E21" s="1">
         <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3623,25 +3624,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3653,29 +3654,29 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_currtype int  null  comment '注册资金币种',</v>
+        <v>pk_currtype int unsigned  null  comment '注册资金币种',</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3683,28 +3684,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E24" s="1">
         <v>100</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3716,28 +3717,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E25" s="1">
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3749,28 +3750,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E26" s="1">
         <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3782,28 +3783,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E27" s="1">
         <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3815,28 +3816,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E28" s="1">
         <v>100</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3848,29 +3849,29 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>supplierstate int  null  comment '供应商状态',</v>
+        <v>supplierstate tinyint unsigned  null  comment '供应商状态',</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3878,28 +3879,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E30" s="1">
         <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3911,28 +3912,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E31" s="1">
         <v>100</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3944,28 +3945,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E32" s="1">
         <v>50</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -3977,28 +3978,28 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E33" s="1">
         <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4010,28 +4011,28 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E34" s="1">
         <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4049,10 +4050,10 @@
         <v>52</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -4061,11 +4062,11 @@
         <v>29</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4073,28 +4074,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E36" s="1">
         <v>200</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4112,23 +4113,23 @@
         <v>55</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K37" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -4142,19 +4143,19 @@
         <v>53</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4172,23 +4173,23 @@
         <v>54</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4202,19 +4203,19 @@
         <v>56</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4232,10 +4233,10 @@
         <v>58</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G41" s="1">
         <v>0</v>
@@ -4244,11 +4245,11 @@
         <v>57</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4262,19 +4263,19 @@
         <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4283,13 +4284,13 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4333,10 +4334,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4353,13 +4354,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -4374,10 +4375,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
@@ -4386,10 +4387,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K43" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
@@ -4398,10 +4399,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4410,10 +4411,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4422,10 +4423,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4434,10 +4435,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4446,10 +4447,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4458,10 +4459,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4470,10 +4471,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4482,10 +4483,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4494,10 +4495,10 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4506,10 +4507,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4518,10 +4519,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4530,10 +4531,10 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4542,10 +4543,10 @@
     </row>
     <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4554,10 +4555,10 @@
     </row>
     <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4566,10 +4567,10 @@
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4578,10 +4579,10 @@
     </row>
     <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4590,10 +4591,10 @@
     </row>
     <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4602,10 +4603,10 @@
     </row>
     <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4614,10 +4615,10 @@
     </row>
     <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4626,10 +4627,10 @@
     </row>
     <row r="24" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F24" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4638,10 +4639,10 @@
     </row>
     <row r="25" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4650,10 +4651,10 @@
     </row>
     <row r="26" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4662,10 +4663,10 @@
     </row>
     <row r="27" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4674,10 +4675,10 @@
     </row>
     <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4686,10 +4687,10 @@
     </row>
     <row r="29" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4698,10 +4699,10 @@
     </row>
     <row r="30" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4710,10 +4711,10 @@
     </row>
     <row r="31" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4722,10 +4723,10 @@
     </row>
     <row r="32" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4734,10 +4735,10 @@
     </row>
     <row r="33" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F33" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4746,10 +4747,10 @@
     </row>
     <row r="34" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4758,10 +4759,10 @@
     </row>
     <row r="35" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F35" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4770,10 +4771,10 @@
     </row>
     <row r="36" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F36" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4782,10 +4783,10 @@
     </row>
     <row r="37" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4794,10 +4795,10 @@
     </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4806,10 +4807,10 @@
     </row>
     <row r="39" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4818,10 +4819,10 @@
     </row>
     <row r="40" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4830,10 +4831,10 @@
     </row>
     <row r="41" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4842,10 +4843,10 @@
     </row>
     <row r="42" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F42" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4854,10 +4855,10 @@
     </row>
     <row r="43" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F43" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -4884,7 +4885,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K30"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4892,7 +4893,8 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -4903,16 +4905,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -4930,13 +4932,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -4960,23 +4962,23 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_org int   auto_increment   comment '主键',</v>
+        <v>pk_org int unsigned   auto_increment   comment '主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4984,28 +4986,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K30" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
@@ -5017,28 +5019,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5050,28 +5052,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5083,28 +5085,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5122,22 +5124,22 @@
         <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5155,23 +5157,23 @@
         <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_group int  null  comment '集团',</v>
+        <v>pk_group int unsigned  null  comment '集团',</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5179,29 +5181,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_superior int  null  comment '上级组织',</v>
+        <v>pk_superior int unsigned  null  comment '上级组织',</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5209,28 +5211,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1">
         <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5242,29 +5244,29 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>principal int  null  comment '负责人',</v>
+        <v>principal int unsigned  null  comment '负责人',</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5272,28 +5274,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E13" s="1">
         <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5305,28 +5307,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E14" s="1">
         <v>200</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5338,28 +5340,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E15" s="1">
         <v>200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5371,28 +5373,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="1">
         <v>200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5404,25 +5406,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5440,22 +5442,22 @@
         <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E18" s="1">
         <v>20</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5467,28 +5469,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E19" s="1">
         <v>200</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5500,29 +5502,29 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_country int  null  comment '国家或地区',</v>
+        <v>pk_country int unsigned  null  comment '国家或地区',</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5530,29 +5532,29 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_timezone int  null  comment '时区',</v>
+        <v>pk_timezone int unsigned  null  comment '时区',</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5566,10 +5568,10 @@
         <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -5578,11 +5580,11 @@
         <v>29</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5590,28 +5592,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5629,23 +5631,23 @@
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -5659,19 +5661,19 @@
         <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5689,23 +5691,23 @@
         <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -5719,19 +5721,19 @@
         <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5749,10 +5751,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -5761,11 +5763,11 @@
         <v>57</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -5779,19 +5781,19 @@
         <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5800,13 +5802,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5833,14 +5835,16 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K30"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -5851,16 +5855,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -5878,13 +5882,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -5902,29 +5906,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_dept int   auto_increment   comment '主键',</v>
+        <v>pk_dept int unsigned   auto_increment   comment '主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5932,28 +5936,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K30" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
@@ -5965,28 +5969,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -5998,28 +6002,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6031,28 +6035,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6070,22 +6074,22 @@
         <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6103,23 +6107,23 @@
         <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_group int  not null  comment '集团',</v>
+        <v>pk_group int unsigned  not null  comment '集团',</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6133,23 +6137,23 @@
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_org int  not null  comment '组织',</v>
+        <v>pk_org int unsigned  not null  comment '组织',</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6157,29 +6161,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_superior int  null  comment '上级部门',</v>
+        <v>pk_superior int unsigned  null  comment '上级部门',</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6187,29 +6191,29 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>depttype int  null  comment '部门类型',</v>
+        <v>depttype int unsigned  null  comment '部门类型',</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6217,29 +6221,29 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>principal int  null  comment '负责人',</v>
+        <v>principal int unsigned  null  comment '负责人',</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6247,28 +6251,28 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E14" s="1">
         <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6280,28 +6284,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E15" s="1">
         <v>200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6313,28 +6317,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="1">
         <v>200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6346,28 +6350,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E17" s="1">
         <v>200</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6379,25 +6383,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6415,22 +6419,22 @@
         <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E19" s="1">
         <v>20</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6442,28 +6446,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E20" s="1">
         <v>200</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6475,25 +6479,25 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6511,10 +6515,10 @@
         <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -6523,11 +6527,11 @@
         <v>29</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -6535,28 +6539,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6574,23 +6578,23 @@
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -6604,19 +6608,19 @@
         <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6634,23 +6638,23 @@
         <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -6664,19 +6668,19 @@
         <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6694,10 +6698,10 @@
         <v>58</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G28" s="1">
         <v>0</v>
@@ -6706,11 +6710,11 @@
         <v>57</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -6724,19 +6728,19 @@
         <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6745,13 +6749,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6778,7 +6782,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K32"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6786,7 +6790,8 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -6797,16 +6802,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6823,13 +6828,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -6847,29 +6852,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_psndoc int   auto_increment   comment '主键',</v>
+        <v>pk_psndoc int unsigned   auto_increment   comment '主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6883,23 +6888,23 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K32" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
-        <v>pk_group int  not null  comment '集团',</v>
+        <v>pk_group int unsigned  not null  comment '集团',</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6913,23 +6918,23 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_org int  not null  comment '组织',</v>
+        <v>pk_org int unsigned  not null  comment '组织',</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6937,28 +6942,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -6970,28 +6975,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7003,28 +7008,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7036,28 +7041,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7069,28 +7074,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7102,28 +7107,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7141,22 +7146,22 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7168,25 +7173,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7198,29 +7203,29 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_psnjob int  null  comment '工作信息',</v>
+        <v>pk_psnjob int unsigned  null  comment '工作信息',</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7228,29 +7233,29 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>sex int  not null  comment '性别',</v>
+        <v>sex tinyint unsigned  not null  comment '性别',</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7258,25 +7263,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7288,29 +7293,29 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>cardtype int  not null  comment '证件类型',</v>
+        <v>cardtype tinyint unsigned  not null  comment '证件类型',</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7318,28 +7323,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E18" s="1">
         <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7351,28 +7356,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E19" s="1">
         <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7384,28 +7389,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E20" s="1">
         <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7417,28 +7422,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E21" s="1">
         <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7450,28 +7455,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E22" s="1">
         <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7483,28 +7488,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E23" s="1">
         <v>200</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7522,10 +7527,10 @@
         <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -7534,11 +7539,11 @@
         <v>29</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -7546,28 +7551,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E25" s="1">
         <v>200</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7585,23 +7590,23 @@
         <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -7615,19 +7620,19 @@
         <v>53</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7645,23 +7650,23 @@
         <v>54</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -7675,19 +7680,19 @@
         <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7705,10 +7710,10 @@
         <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G30" s="1">
         <v>0</v>
@@ -7717,11 +7722,11 @@
         <v>57</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -7735,19 +7740,19 @@
         <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7756,13 +7761,13 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7789,7 +7794,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K23"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7797,7 +7802,8 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -7808,16 +7814,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -7835,13 +7841,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -7859,29 +7865,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_psnjob int   auto_increment   comment '主键',</v>
+        <v>pk_psnjob int unsigned   auto_increment   comment '主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -7895,23 +7901,23 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K23" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
-        <v>pk_group int  not null  comment '集团',</v>
+        <v>pk_group int unsigned  not null  comment '集团',</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -7925,23 +7931,23 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_org int  not null  comment '组织',</v>
+        <v>pk_org int unsigned  not null  comment '组织',</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7949,28 +7955,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -7982,29 +7988,29 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_psncl int  null  comment '人员类别',</v>
+        <v>pk_psncl int unsigned  null  comment '人员类别',</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -8012,29 +8018,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_dept int  null  comment '部门',</v>
+        <v>pk_dept int unsigned  null  comment '部门',</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -8042,25 +8048,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8072,25 +8078,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8102,28 +8108,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1">
         <v>200</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8135,28 +8141,28 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E12" s="1">
         <v>200</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8168,29 +8174,29 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_post int  null  comment '岗位',</v>
+        <v>pk_post int unsigned  null  comment '岗位',</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -8198,29 +8204,29 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>showorder int  null  comment '显示顺序',</v>
+        <v>showorder int unsigned  null  comment '显示顺序',</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8234,10 +8240,10 @@
         <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -8246,11 +8252,11 @@
         <v>29</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8258,28 +8264,28 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E16" s="1">
         <v>200</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8297,23 +8303,23 @@
         <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -8327,19 +8333,19 @@
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8357,23 +8363,23 @@
         <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -8387,19 +8393,19 @@
         <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8417,10 +8423,10 @@
         <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G21" s="1">
         <v>0</v>
@@ -8429,11 +8435,11 @@
         <v>57</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -8447,19 +8453,19 @@
         <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8468,13 +8474,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8500,8 +8506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40989F3B-F940-4B43-B501-15A645B455E5}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8509,7 +8515,8 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -8520,16 +8527,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -8547,13 +8554,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -8571,29 +8578,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_user int   auto_increment   comment '用户主键',</v>
+        <v>pk_user int unsigned   auto_increment   comment '用户主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -8607,23 +8614,23 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K27" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
-        <v>pk_group int  not null  comment '集团',</v>
+        <v>pk_group int unsigned  not null  comment '集团',</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -8637,23 +8644,23 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_org int  not null  comment '组织',</v>
+        <v>pk_org int unsigned  not null  comment '组织',</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -8661,28 +8668,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8694,28 +8701,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8727,28 +8734,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8760,29 +8767,29 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pwdlevel int  null  comment '密码安全级别',</v>
+        <v>pwdlevel tinyint unsigned  null  comment '密码安全级别',</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -8790,28 +8797,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8823,29 +8830,29 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>identityverifycode int  null  comment '认证类型',</v>
+        <v>identityverifycode tinyint unsigned  null  comment '认证类型',</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -8853,25 +8860,25 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8883,25 +8890,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -8913,29 +8920,29 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>islocked int  null  comment '是否锁定',</v>
+        <v>islocked tinyint unsigned  null  comment '是否锁定',</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -8943,29 +8950,29 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_psndoc int  null  comment '人员信息',</v>
+        <v>pk_psndoc int unsigned  null  comment '人员信息',</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -8973,29 +8980,29 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>doctype int  null  comment '身份类型',</v>
+        <v>doctype int unsigned  null  comment '身份类型',</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -9003,29 +9010,29 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>usertype int  null  comment '用户类型',</v>
+        <v>usertype int unsigned  null  comment '用户类型',</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -9033,25 +9040,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9069,10 +9076,10 @@
         <v>52</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -9081,11 +9088,11 @@
         <v>29</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -9093,28 +9100,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E20" s="1">
         <v>200</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9132,23 +9139,23 @@
         <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -9162,19 +9169,19 @@
         <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9192,23 +9199,23 @@
         <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -9222,19 +9229,19 @@
         <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9252,10 +9259,10 @@
         <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G25" s="1">
         <v>0</v>
@@ -9264,11 +9271,11 @@
         <v>57</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -9282,19 +9289,19 @@
         <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9303,13 +9310,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9336,7 +9343,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9344,7 +9351,7 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -9357,16 +9364,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -9384,13 +9391,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -9408,29 +9415,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_usergroup int   auto_increment   comment '主键',</v>
+        <v>pk_usergroup int unsigned   auto_increment   comment '主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9438,28 +9445,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K17" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
@@ -9471,28 +9478,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9504,28 +9511,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9537,29 +9544,29 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_superior int  null  comment '上级用户组',</v>
+        <v>pk_superior int unsigned  null  comment '上级用户组',</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -9573,22 +9580,22 @@
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9606,10 +9613,10 @@
         <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -9618,11 +9625,11 @@
         <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -9630,28 +9637,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1">
         <v>200</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9669,23 +9676,23 @@
         <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9699,19 +9706,19 @@
         <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9729,23 +9736,23 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9759,19 +9766,19 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9789,10 +9796,10 @@
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
@@ -9801,11 +9808,11 @@
         <v>57</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9819,19 +9826,19 @@
         <v>60</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9840,13 +9847,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -9872,8 +9879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9881,7 +9888,7 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -9893,16 +9900,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -9920,13 +9927,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -9950,23 +9957,23 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_material int   auto_increment   comment '主键',</v>
+        <v>pk_material int unsigned   auto_increment   comment '主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -9980,23 +9987,23 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K33" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
-        <v>pk_group int  not null  comment '集团',</v>
+        <v>pk_group int unsigned  not null  comment '集团',</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -10010,23 +10017,23 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_org int  not null  comment '组织',</v>
+        <v>pk_org int unsigned  not null  comment '组织',</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -10034,28 +10041,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10067,28 +10074,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10106,22 +10113,22 @@
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10139,22 +10146,22 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10172,22 +10179,22 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1">
         <v>100</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10205,22 +10212,22 @@
         <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10238,22 +10245,22 @@
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E12" s="1">
         <v>100</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10271,23 +10278,23 @@
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_measdoc int  null  comment '主计量单位',</v>
+        <v>pk_measdoc int unsigned  null  comment '主计量单位',</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -10301,23 +10308,23 @@
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_marbasclass int  null  comment '物料分类',</v>
+        <v>pk_marbasclass int unsigned  null  comment '物料分类',</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -10331,23 +10338,23 @@
         <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_prodline int  null  comment '产品线',</v>
+        <v>pk_prodline int unsigned  null  comment '产品线',</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -10361,23 +10368,23 @@
         <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_brand int  null  comment '品牌',</v>
+        <v>pk_brand int unsigned  null  comment '品牌',</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -10391,19 +10398,19 @@
         <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10421,19 +10428,19 @@
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10451,19 +10458,19 @@
         <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10481,19 +10488,19 @@
         <v>47</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10511,19 +10518,19 @@
         <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10541,19 +10548,19 @@
         <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10571,19 +10578,19 @@
         <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>27</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10601,19 +10608,19 @@
         <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10631,10 +10638,10 @@
         <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -10643,11 +10650,11 @@
         <v>29</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -10655,28 +10662,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E26" s="1">
         <v>200</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10694,23 +10701,23 @@
         <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -10724,19 +10731,19 @@
         <v>53</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10754,23 +10761,23 @@
         <v>54</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -10784,19 +10791,19 @@
         <v>56</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10814,10 +10821,10 @@
         <v>58</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G31" s="1">
         <v>0</v>
@@ -10826,11 +10833,11 @@
         <v>57</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -10844,19 +10851,19 @@
         <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10865,13 +10872,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -10898,7 +10905,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K29"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10906,7 +10913,8 @@
     <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -10917,16 +10925,16 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -10944,13 +10952,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -10968,29 +10976,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
-        <v>pk_storage int   auto_increment   comment '仓库主键',</v>
+        <v>pk_storage int unsigned   auto_increment   comment '仓库主键',</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -11004,23 +11012,23 @@
         <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" s="2" t="str">
         <f t="shared" ref="K4:K29" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
-        <v>pk_group int  not null  comment '集团',</v>
+        <v>pk_group int unsigned  not null  comment '集团',</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -11034,23 +11042,23 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>pk_org int  not null  comment '组织',</v>
+        <v>pk_org int unsigned  not null  comment '组织',</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -11058,28 +11066,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11091,28 +11099,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11130,22 +11138,22 @@
         <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11157,28 +11165,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E9" s="1">
         <v>200</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11190,29 +11198,29 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>principal int  null  comment '负责人',</v>
+        <v>principal int unsigned  null  comment '负责人',</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -11220,28 +11228,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E11" s="1">
         <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11253,29 +11261,29 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>csflag int  null  comment '货位管理标志',</v>
+        <v>csflag tinyint unsigned  null  comment '货位管理标志',</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -11283,29 +11291,29 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>isgubstore int  null  comment '废品仓库标志',</v>
+        <v>isgubstore tinyint unsigned  null  comment '废品仓库标志',</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -11313,29 +11321,29 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>isprostore int  null  comment '生产仓库标志',</v>
+        <v>isprostore tinyint unsigned  null  comment '生产仓库标志',</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -11343,29 +11351,29 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>isonthewaystore int  null  comment '在途仓库标志',</v>
+        <v>isonthewaystore tinyint unsigned  null  comment '在途仓库标志',</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -11373,29 +11381,29 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>isdirectstore int  null  comment '直运仓库标志',</v>
+        <v>isdirectstore tinyint unsigned  null  comment '直运仓库标志',</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -11403,29 +11411,29 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>isagentstore int  null  comment '代储仓库标志',</v>
+        <v>isagentstore tinyint unsigned  null  comment '代储仓库标志',</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -11433,29 +11441,29 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>isretailstore int  null  comment '零售仓库标志',</v>
+        <v>isretailstore tinyint unsigned  null  comment '零售仓库标志',</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -11463,29 +11471,29 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>isshopstore int  null  comment '门店仓库标志',</v>
+        <v>isshopstore tinyint unsigned  null  comment '门店仓库标志',</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -11493,29 +11501,29 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>iskptaxstore int  null  comment '保税仓库标志',</v>
+        <v>iskptaxstore tinyint unsigned  null  comment '保税仓库标志',</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -11529,10 +11537,10 @@
         <v>52</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -11541,11 +11549,11 @@
         <v>29</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>enablestate int   default 1 not null  comment '启用状态',</v>
+        <v>enablestate tinyint unsigned   default 1 not null  comment '启用状态',</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -11553,28 +11561,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E22" s="1">
         <v>200</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11592,23 +11600,23 @@
         <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>creator int  not null  comment '创建人',</v>
+        <v>creator int unsigned  not null  comment '创建人',</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -11622,19 +11630,19 @@
         <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11652,23 +11660,23 @@
         <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>283</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>modifier int  null  comment '修改人',</v>
+        <v>modifier int unsigned  null  comment '修改人',</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -11682,19 +11690,19 @@
         <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11712,10 +11720,10 @@
         <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>281</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G27" s="1">
         <v>0</v>
@@ -11724,11 +11732,11 @@
         <v>57</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>dr int   default 0 not null  comment '删除标志',</v>
+        <v>dr tinyint unsigned   default 0 not null  comment '删除标志',</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -11742,19 +11750,19 @@
         <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -11763,13 +11771,13 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="0"/>

--- a/designdocuments/元数据.xlsx
+++ b/designdocuments/元数据.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC7459E-DB00-417B-9D45-8DB66E43F235}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E1FA1-EAEA-4B7D-8B78-EDD992A0F7B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="700" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="12" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="material" sheetId="1" r:id="rId8"/>
     <sheet name="storage" sheetId="5" r:id="rId9"/>
     <sheet name="supplier" sheetId="7" r:id="rId10"/>
-    <sheet name="模板" sheetId="18" r:id="rId11"/>
+    <sheet name="purchase_demand" sheetId="19" r:id="rId11"/>
+    <sheet name="模板" sheetId="18" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="284">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1205,7 +1206,40 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="121">
+  <dxfs count="132">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1583,187 +1617,204 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1EB5834C-32BF-4984-90C6-3BE09967831D}" name="表9" displayName="表9" ref="A2:I29" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1EB5834C-32BF-4984-90C6-3BE09967831D}" name="表9" displayName="表9" ref="A2:I29" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{27BDECD0-D91A-4AB1-8314-4C12B9FD0918}" name="序号" dataDxfId="118"/>
-    <tableColumn id="2" xr3:uid="{A3A1DF63-7483-43D3-B1FE-9C25740B43D8}" name="字段名" dataDxfId="117"/>
-    <tableColumn id="3" xr3:uid="{38E23FD2-91B6-4EB6-90C8-686DE2936843}" name="字段描述" dataDxfId="116"/>
-    <tableColumn id="4" xr3:uid="{824C4C49-E66E-4B99-9BD6-188FC06B787D}" name="字段类型" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{E3D2AC0D-245D-435E-9510-0B8BD53B98E0}" name="字段长度" dataDxfId="114"/>
-    <tableColumn id="6" xr3:uid="{0F0DE713-A305-4825-9D19-30361FA89425}" name="可否为空" dataDxfId="113"/>
-    <tableColumn id="7" xr3:uid="{BEDE6D45-4171-46FF-8C86-6D33BECDA2EB}" name="默认值" dataDxfId="112"/>
-    <tableColumn id="8" xr3:uid="{45782646-F178-43E0-B068-3E358451E434}" name="属性名" dataDxfId="111"/>
-    <tableColumn id="9" xr3:uid="{2B49CBFC-064F-4B0F-8D3E-833B6B1C5287}" name="属性类型" dataDxfId="110"/>
+    <tableColumn id="1" xr3:uid="{27BDECD0-D91A-4AB1-8314-4C12B9FD0918}" name="序号" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{A3A1DF63-7483-43D3-B1FE-9C25740B43D8}" name="字段名" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{38E23FD2-91B6-4EB6-90C8-686DE2936843}" name="字段描述" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{824C4C49-E66E-4B99-9BD6-188FC06B787D}" name="字段类型" dataDxfId="126"/>
+    <tableColumn id="5" xr3:uid="{E3D2AC0D-245D-435E-9510-0B8BD53B98E0}" name="字段长度" dataDxfId="125"/>
+    <tableColumn id="6" xr3:uid="{0F0DE713-A305-4825-9D19-30361FA89425}" name="可否为空" dataDxfId="124"/>
+    <tableColumn id="7" xr3:uid="{BEDE6D45-4171-46FF-8C86-6D33BECDA2EB}" name="默认值" dataDxfId="123"/>
+    <tableColumn id="8" xr3:uid="{45782646-F178-43E0-B068-3E358451E434}" name="属性名" dataDxfId="122"/>
+    <tableColumn id="9" xr3:uid="{2B49CBFC-064F-4B0F-8D3E-833B6B1C5287}" name="属性类型" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AA5E8DE2-FDF4-4139-9FDE-9431DA716794}" name="表1_3791923" displayName="表1_3791923" ref="A2:I43" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{AA5E8DE2-FDF4-4139-9FDE-9431DA716794}" name="表1_3791923" displayName="表1_3791923" ref="A2:I43" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AC09BD0E-5CF5-4FFE-8F3B-AECD0E3E15B0}" name="序号" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{9452DD37-81DD-414C-915B-9EA4C1D9B0D0}" name="字段名" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{EDAD4239-FA6A-465C-ADCA-6447EF3434D0}" name="字段描述" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{C76AE093-4096-4242-9A37-6B59127D989C}" name="字段类型" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{AD8F088B-54D4-40A7-BF3E-5E1969DF7E95}" name="字段长度" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00752FF6-078F-4EBB-9DFA-76CC8D7F9F3A}" name="可否为空" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{947FD514-0582-428C-BBE8-EA373D42098E}" name="默认值" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{F726CB43-BF6E-40A3-A391-A8D3BF7A50B4}" name="属性名" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{3E076409-D458-4E68-A415-1D5740B00B31}" name="属性类型" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{AC09BD0E-5CF5-4FFE-8F3B-AECD0E3E15B0}" name="序号" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{9452DD37-81DD-414C-915B-9EA4C1D9B0D0}" name="字段名" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{EDAD4239-FA6A-465C-ADCA-6447EF3434D0}" name="字段描述" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{C76AE093-4096-4242-9A37-6B59127D989C}" name="字段类型" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{AD8F088B-54D4-40A7-BF3E-5E1969DF7E95}" name="字段长度" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00752FF6-078F-4EBB-9DFA-76CC8D7F9F3A}" name="可否为空" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{947FD514-0582-428C-BBE8-EA373D42098E}" name="默认值" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{F726CB43-BF6E-40A3-A391-A8D3BF7A50B4}" name="属性名" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{3E076409-D458-4E68-A415-1D5740B00B31}" name="属性类型" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4251ADB4-8596-4466-8B68-805530609015}" name="表1_379" displayName="表1_379" ref="A2:I43" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7147843F-DA53-4DED-822C-20BC06F20804}" name="表1_3792" displayName="表1_3792" ref="A2:I43" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{258957D7-372C-4513-8341-B205F2CB23B5}" name="序号" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{82BFDD16-6DA6-4AB8-A0AA-18C69300F6F7}" name="字段名" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D43BF357-252D-40E7-9D3D-98622461A9FE}" name="字段描述" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{B9B09077-C4F8-4A02-B3F4-FD4D8E4709AD}" name="字段类型" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B376C88F-87CD-4970-A3D4-176E62844F27}" name="字段长度" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E116F0C5-6EBC-4FC2-B795-9CFB51271122}" name="可否为空" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{55E194A9-340C-403A-8747-EB2E6260227D}" name="默认值" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{14D4305C-9CC0-41CB-8207-5059D22DF81D}" name="属性名" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{F85CDC00-2760-4031-9E3B-05F2E0B0C050}" name="属性类型" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C30A1357-31AA-4773-A422-70FEF61F9622}" name="序号" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{FBF5463E-E5A5-4EDC-81AD-143921574C96}" name="字段名" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{B5F22AA9-5AB4-4FAF-8B61-E64DBD4150C7}" name="字段描述" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{4F187639-FCE3-4FF1-95B6-3EFFBAFA8BB0}" name="字段类型" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{39D194E2-F7C6-4FC7-8959-60C386F0ADDF}" name="字段长度" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{2F27DDC3-3C78-40AC-B9C5-699AC6557BA6}" name="可否为空" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{B7247E15-E646-4745-9A46-206C251CFD9C}" name="默认值" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{EB2FFB52-B40A-49BC-8E19-B94A90E9BBAD}" name="属性名" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{33C25591-1147-4E38-8E76-DE5A0DDF4619}" name="属性类型" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{4251ADB4-8596-4466-8B68-805530609015}" name="表1_379" displayName="表1_379" ref="A2:I43" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{258957D7-372C-4513-8341-B205F2CB23B5}" name="序号" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{82BFDD16-6DA6-4AB8-A0AA-18C69300F6F7}" name="字段名" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{D43BF357-252D-40E7-9D3D-98622461A9FE}" name="字段描述" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{B9B09077-C4F8-4A02-B3F4-FD4D8E4709AD}" name="字段类型" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{B376C88F-87CD-4970-A3D4-176E62844F27}" name="字段长度" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{E116F0C5-6EBC-4FC2-B795-9CFB51271122}" name="可否为空" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{55E194A9-340C-403A-8747-EB2E6260227D}" name="默认值" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{14D4305C-9CC0-41CB-8207-5059D22DF81D}" name="属性名" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{F85CDC00-2760-4031-9E3B-05F2E0B0C050}" name="属性类型" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{83815927-2528-4058-88D1-7F7AF429D840}" name="表10" displayName="表10" ref="A2:I30" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{83815927-2528-4058-88D1-7F7AF429D840}" name="表10" displayName="表10" ref="A2:I30" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A6FD98D0-2174-4E88-8EC7-DD566EC07655}" name="序号" dataDxfId="107"/>
-    <tableColumn id="2" xr3:uid="{CC2DB11F-BD41-49B2-A089-C14D541B0D73}" name="字段名" dataDxfId="106"/>
-    <tableColumn id="3" xr3:uid="{95CE7C42-42E9-4858-B86A-6D2EBEA0E5A4}" name="字段描述" dataDxfId="105"/>
-    <tableColumn id="4" xr3:uid="{69DCD9B5-87A0-43DB-BAB7-391A29133EB8}" name="字段类型" dataDxfId="104"/>
-    <tableColumn id="5" xr3:uid="{03B9116E-1A53-44E1-A693-2E6722E32F0B}" name="字段长度" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{678E7864-9BF5-434D-B466-90052B261FA0}" name="可否为空" dataDxfId="102"/>
-    <tableColumn id="7" xr3:uid="{55C6AF20-468B-4A31-9A59-F0594F1F197C}" name="默认值" dataDxfId="101"/>
-    <tableColumn id="8" xr3:uid="{849C173C-750A-45BE-9AA6-62A3544EF33D}" name="属性名" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{D445E7A7-AAAC-4BF0-BDF0-BE1F91D40B86}" name="属性类型" dataDxfId="99"/>
+    <tableColumn id="1" xr3:uid="{A6FD98D0-2174-4E88-8EC7-DD566EC07655}" name="序号" dataDxfId="118"/>
+    <tableColumn id="2" xr3:uid="{CC2DB11F-BD41-49B2-A089-C14D541B0D73}" name="字段名" dataDxfId="117"/>
+    <tableColumn id="3" xr3:uid="{95CE7C42-42E9-4858-B86A-6D2EBEA0E5A4}" name="字段描述" dataDxfId="116"/>
+    <tableColumn id="4" xr3:uid="{69DCD9B5-87A0-43DB-BAB7-391A29133EB8}" name="字段类型" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{03B9116E-1A53-44E1-A693-2E6722E32F0B}" name="字段长度" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{678E7864-9BF5-434D-B466-90052B261FA0}" name="可否为空" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{55C6AF20-468B-4A31-9A59-F0594F1F197C}" name="默认值" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{849C173C-750A-45BE-9AA6-62A3544EF33D}" name="属性名" dataDxfId="111"/>
+    <tableColumn id="9" xr3:uid="{D445E7A7-AAAC-4BF0-BDF0-BE1F91D40B86}" name="属性类型" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A3FBC3A5-EC33-4B72-B173-ACDE85591238}" name="表13" displayName="表13" ref="A2:I30" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A3FBC3A5-EC33-4B72-B173-ACDE85591238}" name="表13" displayName="表13" ref="A2:I30" totalsRowShown="0" headerRowDxfId="109" dataDxfId="108">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{61693B3C-5A67-4210-8A05-FB8F708C7A07}" name="序号" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{5022FBDD-BA72-4034-B909-CD280ECD9F4F}" name="字段名" dataDxfId="95"/>
-    <tableColumn id="3" xr3:uid="{93AF279F-E807-4ABB-83FA-29C02C4732B0}" name="字段描述" dataDxfId="94"/>
-    <tableColumn id="4" xr3:uid="{81505016-A591-4562-8037-583A4FF540FB}" name="字段类型" dataDxfId="93"/>
-    <tableColumn id="5" xr3:uid="{D556BCE4-DA24-4820-9FFA-6DA1929EF275}" name="字段长度" dataDxfId="92"/>
-    <tableColumn id="6" xr3:uid="{DA926CB4-4E4A-404A-AE52-E7ECA352EEDE}" name="可否为空" dataDxfId="91"/>
-    <tableColumn id="7" xr3:uid="{6517B616-08E5-4E2D-B886-37BD22FBA1AB}" name="默认值" dataDxfId="90"/>
-    <tableColumn id="8" xr3:uid="{5F2ADD50-33F8-40C2-9951-4D0EB60D440F}" name="属性名" dataDxfId="89"/>
-    <tableColumn id="9" xr3:uid="{EBC9198F-5A14-4402-B426-EA418551B0B6}" name="属性类型" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{61693B3C-5A67-4210-8A05-FB8F708C7A07}" name="序号" dataDxfId="107"/>
+    <tableColumn id="2" xr3:uid="{5022FBDD-BA72-4034-B909-CD280ECD9F4F}" name="字段名" dataDxfId="106"/>
+    <tableColumn id="3" xr3:uid="{93AF279F-E807-4ABB-83FA-29C02C4732B0}" name="字段描述" dataDxfId="105"/>
+    <tableColumn id="4" xr3:uid="{81505016-A591-4562-8037-583A4FF540FB}" name="字段类型" dataDxfId="104"/>
+    <tableColumn id="5" xr3:uid="{D556BCE4-DA24-4820-9FFA-6DA1929EF275}" name="字段长度" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{DA926CB4-4E4A-404A-AE52-E7ECA352EEDE}" name="可否为空" dataDxfId="102"/>
+    <tableColumn id="7" xr3:uid="{6517B616-08E5-4E2D-B886-37BD22FBA1AB}" name="默认值" dataDxfId="101"/>
+    <tableColumn id="8" xr3:uid="{5F2ADD50-33F8-40C2-9951-4D0EB60D440F}" name="属性名" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{EBC9198F-5A14-4402-B426-EA418551B0B6}" name="属性类型" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18B92DD4-978F-4E6E-B755-11F9EEFC8DC6}" name="表1_37" displayName="表1_37" ref="A2:I32" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{18B92DD4-978F-4E6E-B755-11F9EEFC8DC6}" name="表1_37" displayName="表1_37" ref="A2:I32" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6530E587-A53B-4BAA-B050-998AFBADA05C}" name="序号" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{5471225F-0C0A-48EA-B369-581D4A611E94}" name="字段名" dataDxfId="84"/>
-    <tableColumn id="3" xr3:uid="{CDED7D10-2D12-4E9F-9488-FB3C06DDBD41}" name="字段描述" dataDxfId="83"/>
-    <tableColumn id="4" xr3:uid="{4FCFF257-42A8-40AF-8395-5F5F80839C59}" name="字段类型" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{56EE70FD-57D9-4DD1-9C3B-799819F7DBD4}" name="字段长度" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{C33A5791-2B73-4E8F-9B6F-E2EB0410088B}" name="可否为空" dataDxfId="80"/>
-    <tableColumn id="7" xr3:uid="{5B82F636-82D7-4B2D-AB3D-B342000DA07B}" name="默认值" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{BBA81F1E-A37E-4009-A055-E888EBD5ECA4}" name="属性名" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{D0E9B000-7009-469F-96D7-BB8248E12A45}" name="属性类型" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{6530E587-A53B-4BAA-B050-998AFBADA05C}" name="序号" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{5471225F-0C0A-48EA-B369-581D4A611E94}" name="字段名" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{CDED7D10-2D12-4E9F-9488-FB3C06DDBD41}" name="字段描述" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{4FCFF257-42A8-40AF-8395-5F5F80839C59}" name="字段类型" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{56EE70FD-57D9-4DD1-9C3B-799819F7DBD4}" name="字段长度" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{C33A5791-2B73-4E8F-9B6F-E2EB0410088B}" name="可否为空" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{5B82F636-82D7-4B2D-AB3D-B342000DA07B}" name="默认值" dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{BBA81F1E-A37E-4009-A055-E888EBD5ECA4}" name="属性名" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{D0E9B000-7009-469F-96D7-BB8248E12A45}" name="属性类型" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{65C2A88E-E101-44AA-900E-73628C97F796}" name="表15" displayName="表15" ref="A2:I23" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{65C2A88E-E101-44AA-900E-73628C97F796}" name="表15" displayName="表15" ref="A2:I23" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DCA0AED6-1C6D-43BB-9384-8936F0B5BD42}" name="序号" dataDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{789EDBAB-BC76-4029-96E7-E3946F0A8885}" name="字段名" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{9439CABC-5137-4A7C-9D29-B2210F98CD42}" name="字段描述" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{E76B7EF6-AE18-4D2B-A1D9-A3BB78A03B29}" name="字段类型" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{E6CC79EA-E52E-42B5-9E90-0A19FB5ACBF4}" name="字段长度" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{FF9D2656-EB6E-4BEB-97EF-46D6A5D22726}" name="可否为空" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{190F8FBC-F680-4F59-A2F5-7D8C446000FE}" name="默认值" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{64FA74A3-FF6C-42B5-8CC7-A53DF3DEF772}" name="属性名" dataDxfId="67"/>
-    <tableColumn id="9" xr3:uid="{62F88642-66EF-4BF3-8643-520BC5C7C568}" name="属性类型" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{DCA0AED6-1C6D-43BB-9384-8936F0B5BD42}" name="序号" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{789EDBAB-BC76-4029-96E7-E3946F0A8885}" name="字段名" dataDxfId="84"/>
+    <tableColumn id="3" xr3:uid="{9439CABC-5137-4A7C-9D29-B2210F98CD42}" name="字段描述" dataDxfId="83"/>
+    <tableColumn id="4" xr3:uid="{E76B7EF6-AE18-4D2B-A1D9-A3BB78A03B29}" name="字段类型" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{E6CC79EA-E52E-42B5-9E90-0A19FB5ACBF4}" name="字段长度" dataDxfId="81"/>
+    <tableColumn id="6" xr3:uid="{FF9D2656-EB6E-4BEB-97EF-46D6A5D22726}" name="可否为空" dataDxfId="80"/>
+    <tableColumn id="7" xr3:uid="{190F8FBC-F680-4F59-A2F5-7D8C446000FE}" name="默认值" dataDxfId="79"/>
+    <tableColumn id="8" xr3:uid="{64FA74A3-FF6C-42B5-8CC7-A53DF3DEF772}" name="属性名" dataDxfId="78"/>
+    <tableColumn id="9" xr3:uid="{62F88642-66EF-4BF3-8643-520BC5C7C568}" name="属性类型" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ACC7BC63-1BA4-4BCD-BDEA-3C967E5DF561}" name="表17" displayName="表17" ref="A2:I27" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{ACC7BC63-1BA4-4BCD-BDEA-3C967E5DF561}" name="表17" displayName="表17" ref="A2:I27" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{71E29998-34A9-4167-9178-C56138139ECC}" name="序号" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{6612E7F0-B304-4056-B7D3-B86716C92869}" name="字段名" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{A384FAD0-3691-423D-85B6-B67FF259CE26}" name="字段描述" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{ED23AD6F-EB32-4244-B6C9-5DB6C2CE0440}" name="字段类型" dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{42EAD6C3-4D83-420C-A1B6-3B6C965E4BCF}" name="字段长度" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{FA12EA68-D251-401D-8B6B-BD2669B90E23}" name="可否为空" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{90000192-CCFB-4612-ACBA-96ADDC2088AF}" name="默认值" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{E0107E0E-AE23-446B-8436-97F84E89FE2F}" name="属性名" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{73752CED-65E7-4CC6-9866-4DC36158A0B2}" name="属性类型" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{71E29998-34A9-4167-9178-C56138139ECC}" name="序号" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{6612E7F0-B304-4056-B7D3-B86716C92869}" name="字段名" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{A384FAD0-3691-423D-85B6-B67FF259CE26}" name="字段描述" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{ED23AD6F-EB32-4244-B6C9-5DB6C2CE0440}" name="字段类型" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{42EAD6C3-4D83-420C-A1B6-3B6C965E4BCF}" name="字段长度" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{FA12EA68-D251-401D-8B6B-BD2669B90E23}" name="可否为空" dataDxfId="69"/>
+    <tableColumn id="7" xr3:uid="{90000192-CCFB-4612-ACBA-96ADDC2088AF}" name="默认值" dataDxfId="68"/>
+    <tableColumn id="8" xr3:uid="{E0107E0E-AE23-446B-8436-97F84E89FE2F}" name="属性名" dataDxfId="67"/>
+    <tableColumn id="9" xr3:uid="{73752CED-65E7-4CC6-9866-4DC36158A0B2}" name="属性类型" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{5872424B-6991-4701-B742-B575858C79BA}" name="表19" displayName="表19" ref="A2:I17" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{5872424B-6991-4701-B742-B575858C79BA}" name="表19" displayName="表19" ref="A2:I17" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A15BE779-980F-4C1B-83F8-1322C41D41CD}" name="序号" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{7A638EC2-8FFA-466F-B09B-0C97FD0A33DF}" name="字段名" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{EBD890FF-232B-4164-8532-D8D02CF3A073}" name="字段描述" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{D42D03A3-3DD3-4CDF-9BA3-E26BEAC3E784}" name="字段类型" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{8AA98096-C55B-4B96-889B-35FDFA1E79C8}" name="字段长度" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{5F9E2F50-22E8-4775-A010-23869CEB26CE}" name="可否为空" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{B9DEC6AA-3140-4416-9E2C-B2F2E57E932F}" name="默认值" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{73ACB7B0-5794-4BEC-A08A-BFC7A9632331}" name="属性名" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{70A5DFC2-8B42-4E2D-92E4-B43CBF002BC8}" name="属性类型" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{A15BE779-980F-4C1B-83F8-1322C41D41CD}" name="序号" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{7A638EC2-8FFA-466F-B09B-0C97FD0A33DF}" name="字段名" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{EBD890FF-232B-4164-8532-D8D02CF3A073}" name="字段描述" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{D42D03A3-3DD3-4CDF-9BA3-E26BEAC3E784}" name="字段类型" dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{8AA98096-C55B-4B96-889B-35FDFA1E79C8}" name="字段长度" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{5F9E2F50-22E8-4775-A010-23869CEB26CE}" name="可否为空" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{B9DEC6AA-3140-4416-9E2C-B2F2E57E932F}" name="默认值" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{73ACB7B0-5794-4BEC-A08A-BFC7A9632331}" name="属性名" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{70A5DFC2-8B42-4E2D-92E4-B43CBF002BC8}" name="属性类型" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE40AEE-6FDC-44B5-8874-DF535A3C4410}" name="表20" displayName="表20" ref="A2:I33" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE40AEE-6FDC-44B5-8874-DF535A3C4410}" name="表20" displayName="表20" ref="A2:I33" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E23A7CAB-7244-47E9-8F74-8E491BCDE07E}" name="序号" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{9A0DB0DA-426D-40E8-A4DC-D1705DAFC509}" name="字段名" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{CE6F930D-8025-4AA7-B390-FBA7D4F010CC}" name="字段描述" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{6004FC42-A0EA-401F-94A5-A5134EC9B975}" name="字段类型" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{E5358363-60CA-499F-88EB-3684103B4BE6}" name="字段长度" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{3C7845CD-6DEC-4654-BBA6-C6AF95F2D6D0}" name="可否为空" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{D673D41C-B841-40BA-88CE-7943BA484F0B}" name="默认值" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{A19CD49D-D279-4454-84C7-E8D107446FFE}" name="属性名" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{9B29B408-BF22-402E-9929-1ED00F7005E4}" name="属性类型" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{E23A7CAB-7244-47E9-8F74-8E491BCDE07E}" name="序号" dataDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{9A0DB0DA-426D-40E8-A4DC-D1705DAFC509}" name="字段名" dataDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{CE6F930D-8025-4AA7-B390-FBA7D4F010CC}" name="字段描述" dataDxfId="50"/>
+    <tableColumn id="4" xr3:uid="{6004FC42-A0EA-401F-94A5-A5134EC9B975}" name="字段类型" dataDxfId="49"/>
+    <tableColumn id="5" xr3:uid="{E5358363-60CA-499F-88EB-3684103B4BE6}" name="字段长度" dataDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{3C7845CD-6DEC-4654-BBA6-C6AF95F2D6D0}" name="可否为空" dataDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{D673D41C-B841-40BA-88CE-7943BA484F0B}" name="默认值" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{A19CD49D-D279-4454-84C7-E8D107446FFE}" name="属性名" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{9B29B408-BF22-402E-9929-1ED00F7005E4}" name="属性类型" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D1004C4B-DF88-417B-A89E-681E61705049}" name="表21" displayName="表21" ref="A2:I29" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{D1004C4B-DF88-417B-A89E-681E61705049}" name="表21" displayName="表21" ref="A2:I29" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7C4F5E1A-37F5-486C-8145-A2D5E9E2385B}" name="序号" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{0DEDF550-478A-4F80-A40D-B0AF27F62737}" name="字段名" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{D4131985-56DE-4ECE-B152-D9470A2A88F8}" name="字段描述" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{1C5F5B8D-ABCF-4360-A6EE-247D0B798B02}" name="字段类型" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{315D8F06-37FC-465C-9F90-446F6A6F58D7}" name="字段长度" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{32BB380B-FC0F-4DA1-A4C4-FBC809BC0EE3}" name="可否为空" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{D5BD182F-A36F-4222-BC08-56FD3F49024A}" name="默认值" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{26E7E7B2-71E6-4B42-943A-D23931557C21}" name="属性名" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{E39C6ED7-04FE-458F-94BB-731CDE3D000F}" name="属性类型" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{7C4F5E1A-37F5-486C-8145-A2D5E9E2385B}" name="序号" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{0DEDF550-478A-4F80-A40D-B0AF27F62737}" name="字段名" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{D4131985-56DE-4ECE-B152-D9470A2A88F8}" name="字段描述" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{1C5F5B8D-ABCF-4360-A6EE-247D0B798B02}" name="字段类型" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{315D8F06-37FC-465C-9F90-446F6A6F58D7}" name="字段长度" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{32BB380B-FC0F-4DA1-A4C4-FBC809BC0EE3}" name="可否为空" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{D5BD182F-A36F-4222-BC08-56FD3F49024A}" name="默认值" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{26E7E7B2-71E6-4B42-943A-D23931557C21}" name="属性名" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{E39C6ED7-04FE-458F-94BB-731CDE3D000F}" name="属性类型" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4313,6 +4364,574 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951447C1-E851-4B05-90C6-965209035E21}">
+  <dimension ref="A1:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="69.21875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>"create table if not exists "&amp;C1&amp;" ("</f>
+        <v>create table if not exists  (</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>IF(A3=0,"",IF(A3="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B3&amp;" "&amp;D3&amp;IF(E3=0,"  ","("&amp;E3&amp;") ")&amp;IF(G3="/",""," default "&amp;G3&amp;" ")&amp;IF(A3=1," auto_increment ",F3)&amp;" "&amp;" comment"&amp;" '"&amp;C3&amp;"',"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f t="shared" ref="K4:K43" si="0">IF(A4=0,"",IF(A4="end","constraint "&amp;$C$1&amp;"_"&amp;$B$3&amp;"_uindex  unique  ("&amp;$B$3&amp;") ) comment'"&amp;$E$1&amp;"'; alter table "&amp;$C$1&amp;"  add primary key("&amp;$B$3&amp;");",B4&amp;" "&amp;D4&amp;IF(E4=0,"  ","("&amp;E4&amp;") ")&amp;IF(G4="/",""," default "&amp;G4&amp;" ")&amp;IF(A4=1," auto_increment ",F4)&amp;" "&amp;" comment"&amp;" '"&amp;C4&amp;"',"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F43" xr:uid="{6FD94A64-3CB4-4757-A588-86A11951F7BE}">
+      <formula1>"null,not null"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2BA708-F5E6-4878-A318-B7C846DC3E70}">
   <dimension ref="A1:K43"/>
   <sheetViews>
@@ -8506,7 +9125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40989F3B-F940-4B43-B501-15A645B455E5}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
